--- a/HEXAGON.xlsx
+++ b/HEXAGON.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="-285" windowWidth="8925" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanics" sheetId="2" r:id="rId1"/>
     <sheet name="Lore" sheetId="1" r:id="rId2"/>
     <sheet name="Cultures" sheetId="3" r:id="rId3"/>
+    <sheet name="Money" sheetId="4" r:id="rId4"/>
+    <sheet name="General Items" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -109,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>Exists since 1936</t>
   </si>
@@ -323,13 +325,214 @@
   </si>
   <si>
     <t>The Royal Dominion of Queen Xerviv of the Symptis</t>
+  </si>
+  <si>
+    <t>Item Cost</t>
+  </si>
+  <si>
+    <t>Purchase DC</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Bags and Boxes</t>
+  </si>
+  <si>
+    <t>10lbs, Aluminum travel case</t>
+  </si>
+  <si>
+    <t>40lbs, Aluminum travel case</t>
+  </si>
+  <si>
+    <t>75lbs, Aluminum travel case</t>
+  </si>
+  <si>
+    <t>Briefcase</t>
+  </si>
+  <si>
+    <t>Contractor's field bag</t>
+  </si>
+  <si>
+    <t>Day pack</t>
+  </si>
+  <si>
+    <t>Standard Handbag</t>
+  </si>
+  <si>
+    <t>Oversized Handbag</t>
+  </si>
+  <si>
+    <t>Patrol Box</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Business Outfit</t>
+  </si>
+  <si>
+    <t>Casual Outfit</t>
+  </si>
+  <si>
+    <t>Formal Outfit</t>
+  </si>
+  <si>
+    <t>Fatigues</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>Ghillie Suit</t>
+  </si>
+  <si>
+    <t>Coat</t>
+  </si>
+  <si>
+    <t>Fatigue Jacket</t>
+  </si>
+  <si>
+    <t>Overcoat</t>
+  </si>
+  <si>
+    <t>Parka</t>
+  </si>
+  <si>
+    <t>Windbreaker</t>
+  </si>
+  <si>
+    <t>Tollbelt</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Professional Equipment</t>
+  </si>
+  <si>
+    <t>Bolt Cutter</t>
+  </si>
+  <si>
+    <t>Car Opening Kit</t>
+  </si>
+  <si>
+    <t>Chemical Kit</t>
+  </si>
+  <si>
+    <t>Demolitions Kit</t>
+  </si>
+  <si>
+    <t>Disguise Kit</t>
+  </si>
+  <si>
+    <t>Duct Tape</t>
+  </si>
+  <si>
+    <t>Basic, Electrical Toolkit</t>
+  </si>
+  <si>
+    <t>Deluxe, Electrical Toolkit</t>
+  </si>
+  <si>
+    <t>Basic, Evidence Kit</t>
+  </si>
+  <si>
+    <t>Deluxe, Evidence Kit</t>
+  </si>
+  <si>
+    <t>Fake ID-Chip</t>
+  </si>
+  <si>
+    <t>Forgery Kit</t>
+  </si>
+  <si>
+    <t>Steel Handcuffs</t>
+  </si>
+  <si>
+    <t>Zip-tie Handcuffs (25)</t>
+  </si>
+  <si>
+    <t>Music Instrument</t>
+  </si>
+  <si>
+    <t>Lockpick Set</t>
+  </si>
+  <si>
+    <t>Lock Release Gun</t>
+  </si>
+  <si>
+    <t>Basic, Mechanical Toolkit</t>
+  </si>
+  <si>
+    <t>Deluxe, Mechanical Toolkit</t>
+  </si>
+  <si>
+    <t>Medical Kit</t>
+  </si>
+  <si>
+    <t>Multipurpose Tool</t>
+  </si>
+  <si>
+    <t>Pharmacist Kit</t>
+  </si>
+  <si>
+    <t>S&amp;R Kit</t>
+  </si>
+  <si>
+    <t>Surgery Kit</t>
+  </si>
+  <si>
+    <t>Survival Gear</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Electro-optical Binoculars</t>
+  </si>
+  <si>
+    <t>Chemical Light Sticks (5)</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>Gas Mask</t>
+  </si>
+  <si>
+    <t>Mesh Vest</t>
+  </si>
+  <si>
+    <t>Portable Stove</t>
+  </si>
+  <si>
+    <t>Duracable (150ft.)</t>
+  </si>
+  <si>
+    <t>Sleeping Bag</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +589,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,6 +628,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,13 +656,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -794,483 +1023,545 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="L14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="H23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="H25" s="5" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="H25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
   </sheetData>
   <sortState ref="B8:D16">
     <sortCondition ref="B8"/>
   </sortState>
   <mergeCells count="89">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
@@ -1284,75 +1575,13 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1364,63 +1593,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1438,14 +1667,14 @@
       <c r="L10" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1453,7 +1682,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1461,67 +1690,67 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="13"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="13"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="13"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="13"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="13"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="13"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1552,336 +1781,336 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
@@ -1902,9 +2131,9 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,4 +2291,997 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="6">
+        <v>24</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2750000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>25</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3500000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>46</v>
+      </c>
+      <c r="K9" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>47</v>
+      </c>
+      <c r="K10" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>27</v>
+      </c>
+      <c r="G11" s="17">
+        <v>6500000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>48</v>
+      </c>
+      <c r="K11" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>28</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9000000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>49</v>
+      </c>
+      <c r="K12" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="17">
+        <v>27500</v>
+      </c>
+      <c r="E13" s="6">
+        <v>29</v>
+      </c>
+      <c r="G13" s="17">
+        <v>12000000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>50</v>
+      </c>
+      <c r="K13" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="D14" s="17">
+        <v>35000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6">
+        <v>51</v>
+      </c>
+      <c r="K14" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>120</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6">
+        <v>52</v>
+      </c>
+      <c r="K15" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" s="17">
+        <v>65000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>32</v>
+      </c>
+      <c r="H16" s="6">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>200</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="17">
+        <v>90000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>33</v>
+      </c>
+      <c r="H17" s="6">
+        <v>54</v>
+      </c>
+      <c r="K17" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>275</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17">
+        <v>120000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6">
+        <v>55</v>
+      </c>
+      <c r="K18" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>350</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17">
+        <v>150000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>35</v>
+      </c>
+      <c r="H19" s="6">
+        <v>56</v>
+      </c>
+      <c r="K19" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>500</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17">
+        <v>200000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6">
+        <v>57</v>
+      </c>
+      <c r="K20" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>650</v>
+      </c>
+      <c r="B21" s="6">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17">
+        <v>275000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6">
+        <v>58</v>
+      </c>
+      <c r="K21" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>900</v>
+      </c>
+      <c r="B22" s="6">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17">
+        <v>350000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>38</v>
+      </c>
+      <c r="H22" s="6">
+        <v>59</v>
+      </c>
+      <c r="K22" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="6">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17">
+        <v>500000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>39</v>
+      </c>
+      <c r="H23" s="6">
+        <v>60</v>
+      </c>
+      <c r="K23" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="6">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17">
+        <v>650000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6">
+        <v>61</v>
+      </c>
+      <c r="K24" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="6">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17">
+        <v>900000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>41</v>
+      </c>
+      <c r="H25" s="6">
+        <v>62</v>
+      </c>
+      <c r="K25" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>2750</v>
+      </c>
+      <c r="B26" s="6">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42</v>
+      </c>
+      <c r="H26" s="6">
+        <v>63</v>
+      </c>
+      <c r="K26" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>3500</v>
+      </c>
+      <c r="B27" s="6">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1500000</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43</v>
+      </c>
+      <c r="H27" s="6">
+        <v>64</v>
+      </c>
+      <c r="K27" s="6">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="22">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="22">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="22">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="22">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HEXAGON.xlsx
+++ b/HEXAGON.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-285" windowWidth="6390" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="-285" windowWidth="6390" windowHeight="6480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanics" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="EFP">'Earth''s Council'!$C$7</definedName>
     <definedName name="ICG">'Earth''s Council'!$D$6</definedName>
     <definedName name="ICP">'Earth''s Council'!$C$6</definedName>
+    <definedName name="LunaPopTot">'Earth''s Council'!$C$39</definedName>
     <definedName name="PAAG">'Earth''s Council'!$D$5</definedName>
     <definedName name="PAAP">'Earth''s Council'!$C$5</definedName>
     <definedName name="SFG">'Earth''s Council'!$D$10</definedName>
@@ -873,24 +874,12 @@
     <t>Asian Business Outfit</t>
   </si>
   <si>
-    <t>DeGuerre, Formal Outfit</t>
-  </si>
-  <si>
-    <t>Biézhì, Formal Outfit</t>
-  </si>
-  <si>
     <t>Upper class, Formal Outfit</t>
   </si>
   <si>
-    <t>ICEC Fatigues</t>
-  </si>
-  <si>
     <t>billions</t>
   </si>
   <si>
-    <t>Deluxe Xun Handbag</t>
-  </si>
-  <si>
     <t>Combat</t>
   </si>
   <si>
@@ -1162,6 +1151,99 @@
   </si>
   <si>
     <t>Distance (AU)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Biézhì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Formal Outfit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeGuerre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Formal Outfit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICEC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fatigues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deluxe </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Handbag</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1174,7 +1256,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,6 +1551,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1873,12 +1962,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1891,16 +1976,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1912,17 +2003,26 @@
     <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1933,38 +2033,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1975,11 +2063,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1999,14 +2096,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2388,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2403,13 +2492,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
       <c r="AA3" s="2">
         <v>1</v>
       </c>
@@ -2418,11 +2507,11 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
       <c r="AA4" s="2">
         <v>2</v>
       </c>
@@ -2439,13 +2528,13 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="J6" s="117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K6" s="117"/>
       <c r="L6" s="117"/>
@@ -2461,26 +2550,26 @@
         <v>219</v>
       </c>
       <c r="H7" s="111" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I7" s="108"/>
       <c r="J7" s="108"/>
       <c r="K7" s="109" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L7" s="108" t="s">
         <v>212</v>
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="110" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O7" s="108" t="s">
         <v>212</v>
       </c>
       <c r="P7" s="108"/>
       <c r="Q7" s="108" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AA7" s="2">
         <v>5</v>
@@ -2503,15 +2592,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J8" s="105"/>
-      <c r="K8" s="101">
-        <v>5</v>
-      </c>
+      <c r="K8" s="101"/>
       <c r="L8" s="2">
         <f t="shared" ref="L8:L13" si="0">VLOOKUP(K8,SkillCost,2,FALSE)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="101"/>
       <c r="O8" s="2">
@@ -2520,7 +2607,7 @@
       </c>
       <c r="Q8" s="101">
         <f>SUM(K8+N8)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="2">
         <v>6</v>
@@ -2536,14 +2623,14 @@
       <c r="C9" s="115"/>
       <c r="D9" s="115"/>
       <c r="E9" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="54">
         <f>VLOOKUP(E9,AbltyCost,2,FALSE)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J9" s="105"/>
       <c r="K9" s="101"/>
@@ -2574,14 +2661,14 @@
       <c r="C10" s="114"/>
       <c r="D10" s="114"/>
       <c r="E10" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="53">
         <f>VLOOKUP(E10,AbltyCost,2,FALSE)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="104" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J10" s="105"/>
       <c r="K10" s="101"/>
@@ -2612,14 +2699,14 @@
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
       <c r="E11" s="52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="54">
         <f>VLOOKUP(E11,AbltyCost,2,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="104" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J11" s="105"/>
       <c r="K11" s="101"/>
@@ -2650,14 +2737,14 @@
       <c r="C12" s="114"/>
       <c r="D12" s="114"/>
       <c r="E12" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="53">
         <f>VLOOKUP(E12,AbltyCost,2,FALSE)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="104" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J12" s="105"/>
       <c r="K12" s="102"/>
@@ -2683,7 +2770,7 @@
     </row>
     <row r="13" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="104" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J13" s="105"/>
       <c r="K13" s="101"/>
@@ -2728,14 +2815,14 @@
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="54">
         <f>VLOOKUP(E15,AbltyCost,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="104" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J15" s="105"/>
       <c r="K15" s="101"/>
@@ -2743,16 +2830,14 @@
         <f t="shared" ref="L15:L25" si="3">VLOOKUP(K15,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="101">
-        <v>5</v>
-      </c>
+      <c r="N15" s="101"/>
       <c r="O15" s="2">
         <f t="shared" ref="O15:O25" si="4">IF((VLOOKUP(N15,SkillCost,2,FALSE)-5)&lt;0, 0, (VLOOKUP(N15,SkillCost,2,FALSE)-5))</f>
         <v>0</v>
       </c>
       <c r="Q15" s="101">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="57"/>
     </row>
@@ -2763,14 +2848,14 @@
       <c r="C16" s="114"/>
       <c r="D16" s="114"/>
       <c r="E16" s="52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" s="53">
         <f>VLOOKUP(E16,AbltyCost,2,FALSE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J16" s="105"/>
       <c r="K16" s="101"/>
@@ -2796,14 +2881,14 @@
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
       <c r="E17" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="54">
         <f>VLOOKUP(E17,AbltyCost,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J17" s="105"/>
       <c r="K17" s="101"/>
@@ -2829,14 +2914,14 @@
       <c r="C18" s="114"/>
       <c r="D18" s="114"/>
       <c r="E18" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="53">
         <f>VLOOKUP(E18,AbltyCost,2,FALSE)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="104" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J18" s="105"/>
       <c r="K18" s="101"/>
@@ -2863,15 +2948,13 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I19" s="104" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J19" s="105"/>
-      <c r="K19" s="101">
-        <v>1</v>
-      </c>
+      <c r="K19" s="101"/>
       <c r="L19" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="101"/>
       <c r="O19" s="2">
@@ -2880,7 +2963,7 @@
       </c>
       <c r="Q19" s="101">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="2">
         <v>1</v>
@@ -2893,18 +2976,16 @@
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="F20" s="55">
         <f>5-SUM(F8:F18)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="104" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J20" s="105"/>
-      <c r="K20" s="101">
-        <v>4</v>
-      </c>
+      <c r="K20" s="101"/>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="101"/>
       <c r="O20" s="2">
@@ -2913,7 +2994,7 @@
       </c>
       <c r="Q20" s="101">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="2">
         <v>2</v>
@@ -2928,7 +3009,7 @@
       <c r="C21" s="99"/>
       <c r="D21" s="99"/>
       <c r="I21" s="104" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J21" s="105"/>
       <c r="K21" s="101"/>
@@ -2955,7 +3036,7 @@
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I22" s="104" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J22" s="105"/>
       <c r="K22" s="101"/>
@@ -2984,15 +3065,13 @@
       <c r="C23" s="99"/>
       <c r="D23" s="99"/>
       <c r="I23" s="104" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J23" s="105"/>
-      <c r="K23" s="101">
-        <v>3</v>
-      </c>
+      <c r="K23" s="101"/>
       <c r="L23" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="101"/>
       <c r="O23" s="2">
@@ -3001,7 +3080,7 @@
       </c>
       <c r="Q23" s="101">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="2">
         <v>5</v>
@@ -3012,15 +3091,13 @@
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I24" s="104" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J24" s="105"/>
-      <c r="K24" s="101">
-        <v>1</v>
-      </c>
+      <c r="K24" s="101"/>
       <c r="L24" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="101"/>
       <c r="O24" s="2">
@@ -3029,7 +3106,7 @@
       </c>
       <c r="Q24" s="101">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="2">
         <v>6</v>
@@ -3043,7 +3120,7 @@
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
       <c r="I25" s="104" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J25" s="105"/>
       <c r="K25" s="101"/>
@@ -3081,15 +3158,13 @@
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I27" s="104" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J27" s="105"/>
-      <c r="K27" s="101">
-        <v>1</v>
-      </c>
+      <c r="K27" s="101"/>
       <c r="L27" s="2">
         <f>VLOOKUP(K27,SkillCost,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="101"/>
       <c r="O27" s="2">
@@ -3098,7 +3173,7 @@
       </c>
       <c r="Q27" s="101">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="2">
         <v>9</v>
@@ -3109,15 +3184,13 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I28" s="104" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J28" s="105"/>
-      <c r="K28" s="101">
-        <v>5</v>
-      </c>
+      <c r="K28" s="101"/>
       <c r="L28" s="2">
         <f>VLOOKUP(K28,SkillCost,2,FALSE)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="101"/>
       <c r="O28" s="2">
@@ -3126,7 +3199,7 @@
       </c>
       <c r="Q28" s="101">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="2">
         <v>10</v>
@@ -3137,7 +3210,7 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I29" s="104" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J29" s="105"/>
       <c r="K29" s="101"/>
@@ -3175,15 +3248,13 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I31" s="104" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J31" s="105"/>
-      <c r="K31" s="101">
-        <v>7</v>
-      </c>
+      <c r="K31" s="101"/>
       <c r="L31" s="2">
         <f>VLOOKUP(K31,SkillCost,2,FALSE)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N31" s="101"/>
       <c r="O31" s="2">
@@ -3192,7 +3263,7 @@
       </c>
       <c r="Q31" s="101">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="2">
         <v>13</v>
@@ -3203,7 +3274,7 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="I32" s="104" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J32" s="105"/>
       <c r="K32" s="101"/>
@@ -3211,16 +3282,14 @@
         <f>VLOOKUP(K32,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="101">
-        <v>6</v>
-      </c>
+      <c r="N32" s="101"/>
       <c r="O32" s="2">
         <f>IF((VLOOKUP(N32,SkillCost,2,FALSE)-5)&lt;0, 0, (VLOOKUP(N32,SkillCost,2,FALSE)-5))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="101">
         <f>SUM(K32+N32)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="2">
         <v>14</v>
@@ -3231,15 +3300,13 @@
     </row>
     <row r="33" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I33" s="104" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J33" s="105"/>
-      <c r="K33" s="101">
-        <v>8</v>
-      </c>
+      <c r="K33" s="101"/>
       <c r="L33" s="2">
         <f>VLOOKUP(K33,SkillCost,2,FALSE)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N33" s="101"/>
       <c r="O33" s="2">
@@ -3248,7 +3315,7 @@
       </c>
       <c r="Q33" s="101">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="2">
         <v>15</v>
@@ -3259,15 +3326,13 @@
     </row>
     <row r="34" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I34" s="104" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J34" s="105"/>
-      <c r="K34" s="101">
-        <v>3</v>
-      </c>
+      <c r="K34" s="101"/>
       <c r="L34" s="2">
         <f>VLOOKUP(K34,SkillCost,2,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34" s="101"/>
       <c r="O34" s="2">
@@ -3276,7 +3341,7 @@
       </c>
       <c r="Q34" s="101">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="2">
         <v>16</v>
@@ -3287,7 +3352,7 @@
     </row>
     <row r="35" spans="9:27" ht="15" x14ac:dyDescent="0.25">
       <c r="I35" s="116" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J35" s="116"/>
       <c r="K35" s="116"/>
@@ -3306,7 +3371,7 @@
     </row>
     <row r="36" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I36" s="104" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J36" s="105"/>
       <c r="K36" s="101"/>
@@ -3332,7 +3397,7 @@
     </row>
     <row r="37" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I37" s="104" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J37" s="105"/>
       <c r="K37" s="101"/>
@@ -3358,7 +3423,7 @@
     </row>
     <row r="38" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I38" s="104" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J38" s="105"/>
       <c r="K38" s="101"/>
@@ -3384,7 +3449,7 @@
     </row>
     <row r="39" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I39" s="104" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J39" s="105"/>
       <c r="K39" s="101"/>
@@ -3410,7 +3475,7 @@
     </row>
     <row r="41" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I41" s="104" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J41" s="105"/>
       <c r="K41" s="101"/>
@@ -3430,7 +3495,7 @@
     </row>
     <row r="42" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I42" s="106" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J42" s="107"/>
       <c r="K42" s="101"/>
@@ -3438,21 +3503,19 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N42" s="101">
-        <v>5</v>
-      </c>
+      <c r="N42" s="101"/>
       <c r="O42" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="101">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I43" s="106" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J43" s="107"/>
       <c r="K43" s="101"/>
@@ -3472,7 +3535,7 @@
     </row>
     <row r="44" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I44" s="106" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J44" s="107"/>
       <c r="K44" s="101"/>
@@ -3492,7 +3555,7 @@
     </row>
     <row r="45" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I45" s="106" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J45" s="107"/>
       <c r="K45" s="101"/>
@@ -3512,7 +3575,7 @@
     </row>
     <row r="46" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I46" s="106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J46" s="107"/>
       <c r="K46" s="101"/>
@@ -3532,7 +3595,7 @@
     </row>
     <row r="47" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I47" s="106" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J47" s="107"/>
       <c r="K47" s="101"/>
@@ -3552,7 +3615,7 @@
     </row>
     <row r="48" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I48" s="104" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J48" s="105"/>
       <c r="K48" s="101"/>
@@ -3572,7 +3635,7 @@
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I49" s="104" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J49" s="105"/>
       <c r="K49" s="101"/>
@@ -3592,7 +3655,7 @@
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I50" s="104" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J50" s="105"/>
       <c r="K50" s="101"/>
@@ -3612,7 +3675,7 @@
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I51" s="104" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J51" s="105"/>
       <c r="K51" s="101"/>
@@ -3632,15 +3695,13 @@
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I52" s="104" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J52" s="105"/>
-      <c r="K52" s="101">
-        <v>5</v>
-      </c>
+      <c r="K52" s="101"/>
       <c r="L52" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N52" s="101"/>
       <c r="O52" s="2">
@@ -3649,12 +3710,12 @@
       </c>
       <c r="Q52" s="101">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I53" s="104" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J53" s="105"/>
       <c r="K53" s="101"/>
@@ -3673,13 +3734,9 @@
       </c>
     </row>
     <row r="55" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="L55" s="2">
-        <f>50-SUM(SUM(L8:L53),O55)</f>
-        <v>0</v>
-      </c>
       <c r="O55" s="103">
         <f>SUM(O8:O53)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3687,11 +3744,6 @@
     <sortCondition ref="B8"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="J6:L6"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B14:D14"/>
@@ -3701,6 +3753,11 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -3722,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,20 +3808,20 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
-      <c r="M1" s="122" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
+      <c r="M1" s="124" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
       <c r="Y1" s="86"/>
       <c r="Z1" s="86"/>
       <c r="AA1" s="86"/>
@@ -3794,18 +3851,18 @@
       <c r="J2" s="86"/>
       <c r="K2" s="86"/>
       <c r="L2" s="86"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
       <c r="Y2" s="86"/>
       <c r="Z2" s="86"/>
       <c r="AA2" s="86"/>
@@ -3826,7 +3883,7 @@
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="97"/>
       <c r="B4" s="87" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
@@ -3838,7 +3895,7 @@
       <c r="L4" s="93"/>
       <c r="W4" s="97"/>
       <c r="X4" s="87" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB4" s="93"/>
       <c r="AC4" s="93"/>
@@ -3852,14 +3909,14 @@
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="97"/>
       <c r="B5" s="87" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
       <c r="W5" s="97"/>
       <c r="X5" s="87" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AB5" s="93"/>
       <c r="AC5" s="93"/>
@@ -3873,7 +3930,7 @@
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="97"/>
       <c r="B6" s="87" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E6" s="93"/>
       <c r="F6" s="93"/>
@@ -3885,7 +3942,7 @@
       <c r="L6" s="93"/>
       <c r="W6" s="97"/>
       <c r="X6" s="87" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AB6" s="94"/>
       <c r="AC6" s="94"/>
@@ -3894,14 +3951,14 @@
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="97"/>
       <c r="B7" s="87" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
       <c r="G7" s="94"/>
       <c r="W7" s="97"/>
       <c r="X7" s="87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AB7" s="94"/>
       <c r="AC7" s="94"/>
@@ -3914,71 +3971,71 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="97"/>
-      <c r="B10" s="119" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="H10" s="120"/>
+      <c r="B10" s="128" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="127"/>
       <c r="I10" s="97"/>
-      <c r="J10" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="P10" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
+      <c r="J10" s="128" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="P10" s="127" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
       <c r="AC10" s="97"/>
-      <c r="AD10" s="119" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ10" s="120"/>
-      <c r="AL10" s="120" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM10" s="120"/>
-      <c r="AO10" s="120" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP10" s="120"/>
+      <c r="AD10" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ10" s="127"/>
+      <c r="AL10" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM10" s="127"/>
+      <c r="AO10" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP10" s="127"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="97"/>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="97"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
@@ -3999,21 +4056,21 @@
       <c r="AA11" s="93"/>
       <c r="AC11" s="97"/>
       <c r="AD11" s="90" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AE11" s="89"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="97"/>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="97"/>
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
@@ -4034,29 +4091,29 @@
       <c r="AA12" s="93"/>
       <c r="AC12" s="97"/>
       <c r="AD12" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE12" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
+        <v>265</v>
+      </c>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AO12" s="122"/>
+      <c r="AP12" s="122"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="97"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="97"/>
       <c r="J13" s="93"/>
       <c r="K13" s="93"/>
@@ -4077,29 +4134,29 @@
       <c r="AA13" s="93"/>
       <c r="AC13" s="97"/>
       <c r="AD13" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE13" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
+        <v>266</v>
+      </c>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="97"/>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="97"/>
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
@@ -4120,29 +4177,29 @@
       <c r="AA14" s="93"/>
       <c r="AC14" s="97"/>
       <c r="AD14" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE14" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
+        <v>267</v>
+      </c>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="97"/>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="97"/>
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
@@ -4163,25 +4220,25 @@
       <c r="AA15" s="93"/>
       <c r="AC15" s="97"/>
       <c r="AD15" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE15" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="AE15" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AO15" s="122"/>
+      <c r="AP15" s="122"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="97"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="I16" s="97"/>
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
@@ -4202,29 +4259,29 @@
       <c r="AA16" s="93"/>
       <c r="AC16" s="97"/>
       <c r="AD16" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE16" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
+        <v>269</v>
+      </c>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="122"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="97"/>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="97"/>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
@@ -4245,29 +4302,29 @@
       <c r="AA17" s="93"/>
       <c r="AC17" s="97"/>
       <c r="AD17" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE17" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
+        <v>270</v>
+      </c>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="122"/>
     </row>
     <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="97"/>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="97"/>
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
@@ -4288,20 +4345,20 @@
       <c r="AA18" s="93"/>
       <c r="AC18" s="97"/>
       <c r="AD18" s="90" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="97"/>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
       <c r="I19" s="97"/>
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
@@ -4322,29 +4379,29 @@
       <c r="AA19" s="93"/>
       <c r="AC19" s="97"/>
       <c r="AD19" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE19" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
+        <v>272</v>
+      </c>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
+      <c r="AO19" s="122"/>
+      <c r="AP19" s="122"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="97"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="97"/>
       <c r="J20" s="93"/>
       <c r="K20" s="93"/>
@@ -4365,29 +4422,29 @@
       <c r="AA20" s="93"/>
       <c r="AC20" s="97"/>
       <c r="AD20" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE20" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
+        <v>273</v>
+      </c>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AO20" s="122"/>
+      <c r="AP20" s="122"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="97"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="97"/>
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
@@ -4408,17 +4465,17 @@
       <c r="AA21" s="93"/>
       <c r="AC21" s="97"/>
       <c r="AD21" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE21" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
+        <v>274</v>
+      </c>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J22" s="95"/>
@@ -4428,65 +4485,65 @@
       <c r="N22" s="95"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE22" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
+        <v>275</v>
+      </c>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="122"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
+      <c r="AO22" s="122"/>
+      <c r="AP22" s="122"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="B23" s="128" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
       <c r="J23" s="95"/>
       <c r="K23" s="95"/>
       <c r="L23" s="95"/>
       <c r="M23" s="95"/>
       <c r="N23" s="95"/>
       <c r="R23" s="97"/>
-      <c r="S23" s="119" t="s">
-        <v>336</v>
-      </c>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
+      <c r="S23" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
       <c r="Y23" s="89" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AC23" s="97"/>
       <c r="AD23" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE23" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
+        <v>276</v>
+      </c>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="122"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="122"/>
+      <c r="AO23" s="122"/>
+      <c r="AP23" s="122"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
+        <v>327</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
       <c r="H24" s="88" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="93"/>
@@ -4505,27 +4562,27 @@
       <c r="AA24" s="93"/>
       <c r="AC24" s="97"/>
       <c r="AD24" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE24" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
+        <v>277</v>
+      </c>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
+      <c r="AO24" s="122"/>
+      <c r="AP24" s="122"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
+        <v>326</v>
+      </c>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
       <c r="H25" s="88" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="93"/>
@@ -4544,17 +4601,17 @@
       <c r="AA25" s="93"/>
       <c r="AC25" s="97"/>
       <c r="AD25" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE25" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
+        <v>278</v>
+      </c>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="122"/>
+      <c r="AO25" s="122"/>
+      <c r="AP25" s="122"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J26" s="95"/>
@@ -4573,17 +4630,17 @@
       <c r="AA26" s="93"/>
       <c r="AC26" s="97"/>
       <c r="AD26" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE26" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
+        <v>279</v>
+      </c>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122"/>
+      <c r="AL26" s="122"/>
+      <c r="AM26" s="122"/>
+      <c r="AO26" s="122"/>
+      <c r="AP26" s="122"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J27" s="95"/>
@@ -4602,17 +4659,17 @@
       <c r="AA27" s="93"/>
       <c r="AC27" s="97"/>
       <c r="AD27" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE27" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
+        <v>280</v>
+      </c>
+      <c r="AI27" s="122"/>
+      <c r="AJ27" s="122"/>
+      <c r="AL27" s="122"/>
+      <c r="AM27" s="122"/>
+      <c r="AO27" s="122"/>
+      <c r="AP27" s="122"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J28" s="95"/>
@@ -4631,17 +4688,17 @@
       <c r="AA28" s="93"/>
       <c r="AC28" s="97"/>
       <c r="AD28" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE28" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
+        <v>281</v>
+      </c>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
+      <c r="AO28" s="122"/>
+      <c r="AP28" s="122"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R29" s="97"/>
@@ -4655,17 +4712,17 @@
       <c r="AA29" s="93"/>
       <c r="AC29" s="97"/>
       <c r="AD29" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE29" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
+        <v>282</v>
+      </c>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="122"/>
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="122"/>
+      <c r="AO29" s="122"/>
+      <c r="AP29" s="122"/>
     </row>
     <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R30" s="97"/>
@@ -4679,7 +4736,7 @@
       <c r="AA30" s="93"/>
       <c r="AC30" s="97"/>
       <c r="AD30" s="90" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
@@ -4694,17 +4751,17 @@
       <c r="AA31" s="93"/>
       <c r="AC31" s="97"/>
       <c r="AD31" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE31" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
+        <v>284</v>
+      </c>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AO31" s="122"/>
+      <c r="AP31" s="122"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R32" s="97"/>
@@ -4718,17 +4775,17 @@
       <c r="AA32" s="93"/>
       <c r="AC32" s="97"/>
       <c r="AD32" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE32" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
+        <v>285</v>
+      </c>
+      <c r="AI32" s="122"/>
+      <c r="AJ32" s="122"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R33" s="97"/>
@@ -4742,17 +4799,17 @@
       <c r="AA33" s="93"/>
       <c r="AC33" s="97"/>
       <c r="AD33" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE33" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
+        <v>286</v>
+      </c>
+      <c r="AI33" s="122"/>
+      <c r="AJ33" s="122"/>
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="122"/>
+      <c r="AO33" s="122"/>
+      <c r="AP33" s="122"/>
     </row>
     <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R34" s="97"/>
@@ -4766,7 +4823,7 @@
       <c r="AA34" s="93"/>
       <c r="AC34" s="97"/>
       <c r="AD34" s="90" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -4781,17 +4838,17 @@
       <c r="AA35" s="93"/>
       <c r="AC35" s="97"/>
       <c r="AD35" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE35" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI35" s="118"/>
-      <c r="AJ35" s="118"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
+        <v>288</v>
+      </c>
+      <c r="AI35" s="122"/>
+      <c r="AJ35" s="122"/>
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="122"/>
+      <c r="AO35" s="122"/>
+      <c r="AP35" s="122"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R36" s="97"/>
@@ -4805,17 +4862,17 @@
       <c r="AA36" s="93"/>
       <c r="AC36" s="97"/>
       <c r="AD36" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE36" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI36" s="118"/>
-      <c r="AJ36" s="118"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="118"/>
-      <c r="AO36" s="118"/>
-      <c r="AP36" s="118"/>
+        <v>289</v>
+      </c>
+      <c r="AI36" s="122"/>
+      <c r="AJ36" s="122"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="122"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R37" s="97"/>
@@ -4829,17 +4886,17 @@
       <c r="AA37" s="93"/>
       <c r="AC37" s="97"/>
       <c r="AD37" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE37" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
+        <v>290</v>
+      </c>
+      <c r="AI37" s="122"/>
+      <c r="AJ37" s="122"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
+      <c r="AO37" s="122"/>
+      <c r="AP37" s="122"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R38" s="97"/>
@@ -4853,17 +4910,17 @@
       <c r="AA38" s="93"/>
       <c r="AC38" s="97"/>
       <c r="AD38" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE38" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="118"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="118"/>
+        <v>291</v>
+      </c>
+      <c r="AI38" s="122"/>
+      <c r="AJ38" s="122"/>
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="122"/>
+      <c r="AO38" s="122"/>
+      <c r="AP38" s="122"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AC39" s="97"/>
@@ -4873,33 +4930,33 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R41" s="97"/>
-      <c r="S41" s="119" t="s">
-        <v>342</v>
-      </c>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="119"/>
+      <c r="S41" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
       <c r="AC41" s="97"/>
-      <c r="AD41" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="124"/>
-      <c r="AG41" s="124"/>
-      <c r="AH41" s="124"/>
-      <c r="AI41" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ41" s="120"/>
-      <c r="AL41" s="120" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM41" s="120"/>
-      <c r="AO41" s="120" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP41" s="120"/>
+      <c r="AD41" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE41" s="126"/>
+      <c r="AF41" s="126"/>
+      <c r="AG41" s="126"/>
+      <c r="AH41" s="126"/>
+      <c r="AI41" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ41" s="127"/>
+      <c r="AL41" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM41" s="127"/>
+      <c r="AO41" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP41" s="127"/>
     </row>
     <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R42" s="97"/>
@@ -4914,7 +4971,7 @@
       <c r="AA42" s="93"/>
       <c r="AC42" s="97"/>
       <c r="AD42" s="90" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
@@ -4930,27 +4987,27 @@
       <c r="AA43" s="93"/>
       <c r="AC43" s="97"/>
       <c r="AD43" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE43" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI43" s="118"/>
-      <c r="AJ43" s="118"/>
-      <c r="AL43" s="118"/>
-      <c r="AM43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
+        <v>305</v>
+      </c>
+      <c r="AI43" s="122"/>
+      <c r="AJ43" s="122"/>
+      <c r="AL43" s="122"/>
+      <c r="AM43" s="122"/>
+      <c r="AO43" s="122"/>
+      <c r="AP43" s="122"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="97"/>
-      <c r="B44" s="119" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
+      <c r="B44" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
       <c r="R44" s="97"/>
       <c r="S44" s="93"/>
       <c r="T44" s="93"/>
@@ -4963,17 +5020,17 @@
       <c r="AA44" s="93"/>
       <c r="AC44" s="97"/>
       <c r="AD44" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE44" s="92" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="118"/>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="118"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="118"/>
+        <v>306</v>
+      </c>
+      <c r="AI44" s="122"/>
+      <c r="AJ44" s="122"/>
+      <c r="AL44" s="122"/>
+      <c r="AM44" s="122"/>
+      <c r="AO44" s="122"/>
+      <c r="AP44" s="122"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="97"/>
@@ -4994,17 +5051,17 @@
       <c r="AA45" s="93"/>
       <c r="AC45" s="97"/>
       <c r="AD45" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE45" s="92" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI45" s="118"/>
-      <c r="AJ45" s="118"/>
-      <c r="AL45" s="118"/>
-      <c r="AM45" s="118"/>
-      <c r="AO45" s="118"/>
-      <c r="AP45" s="118"/>
+        <v>307</v>
+      </c>
+      <c r="AI45" s="122"/>
+      <c r="AJ45" s="122"/>
+      <c r="AL45" s="122"/>
+      <c r="AM45" s="122"/>
+      <c r="AO45" s="122"/>
+      <c r="AP45" s="122"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
@@ -5025,17 +5082,17 @@
       <c r="AA46" s="93"/>
       <c r="AC46" s="97"/>
       <c r="AD46" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE46" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI46" s="118"/>
-      <c r="AJ46" s="118"/>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="118"/>
-      <c r="AO46" s="118"/>
-      <c r="AP46" s="118"/>
+        <v>308</v>
+      </c>
+      <c r="AI46" s="122"/>
+      <c r="AJ46" s="122"/>
+      <c r="AL46" s="122"/>
+      <c r="AM46" s="122"/>
+      <c r="AO46" s="122"/>
+      <c r="AP46" s="122"/>
     </row>
     <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
@@ -5056,7 +5113,7 @@
       <c r="AA47" s="93"/>
       <c r="AC47" s="97"/>
       <c r="AD47" s="90" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AE47" s="92"/>
     </row>
@@ -5079,17 +5136,17 @@
       <c r="AA48" s="93"/>
       <c r="AC48" s="97"/>
       <c r="AD48" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE48" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI48" s="118"/>
-      <c r="AJ48" s="118"/>
-      <c r="AL48" s="118"/>
-      <c r="AM48" s="118"/>
-      <c r="AO48" s="118"/>
-      <c r="AP48" s="118"/>
+        <v>309</v>
+      </c>
+      <c r="AI48" s="122"/>
+      <c r="AJ48" s="122"/>
+      <c r="AL48" s="122"/>
+      <c r="AM48" s="122"/>
+      <c r="AO48" s="122"/>
+      <c r="AP48" s="122"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="97"/>
@@ -5110,17 +5167,17 @@
       <c r="AA49" s="93"/>
       <c r="AC49" s="97"/>
       <c r="AD49" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE49" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI49" s="118"/>
-      <c r="AJ49" s="118"/>
-      <c r="AL49" s="118"/>
-      <c r="AM49" s="118"/>
-      <c r="AO49" s="118"/>
-      <c r="AP49" s="118"/>
+        <v>310</v>
+      </c>
+      <c r="AI49" s="122"/>
+      <c r="AJ49" s="122"/>
+      <c r="AL49" s="122"/>
+      <c r="AM49" s="122"/>
+      <c r="AO49" s="122"/>
+      <c r="AP49" s="122"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B50" s="95"/>
@@ -5140,32 +5197,32 @@
       <c r="AA50" s="93"/>
       <c r="AC50" s="97"/>
       <c r="AD50" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE50" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI50" s="118"/>
-      <c r="AJ50" s="118"/>
-      <c r="AL50" s="118"/>
-      <c r="AM50" s="118"/>
-      <c r="AO50" s="118"/>
-      <c r="AP50" s="118"/>
+        <v>311</v>
+      </c>
+      <c r="AI50" s="122"/>
+      <c r="AJ50" s="122"/>
+      <c r="AL50" s="122"/>
+      <c r="AM50" s="122"/>
+      <c r="AO50" s="122"/>
+      <c r="AP50" s="122"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="97"/>
-      <c r="B51" s="119" t="s">
-        <v>338</v>
-      </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
+      <c r="B51" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
       <c r="H51" s="89" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M51" s="89" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="R51" s="97"/>
       <c r="S51" s="93"/>
@@ -5179,17 +5236,17 @@
       <c r="AA51" s="93"/>
       <c r="AC51" s="97"/>
       <c r="AD51" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE51" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI51" s="118"/>
-      <c r="AJ51" s="118"/>
-      <c r="AL51" s="118"/>
-      <c r="AM51" s="118"/>
-      <c r="AO51" s="118"/>
-      <c r="AP51" s="118"/>
+        <v>312</v>
+      </c>
+      <c r="AI51" s="122"/>
+      <c r="AJ51" s="122"/>
+      <c r="AL51" s="122"/>
+      <c r="AM51" s="122"/>
+      <c r="AO51" s="122"/>
+      <c r="AP51" s="122"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="97"/>
@@ -5218,17 +5275,17 @@
       <c r="AA52" s="93"/>
       <c r="AC52" s="97"/>
       <c r="AD52" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE52" s="92" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
+        <v>313</v>
+      </c>
+      <c r="AI52" s="122"/>
+      <c r="AJ52" s="122"/>
+      <c r="AL52" s="122"/>
+      <c r="AM52" s="122"/>
+      <c r="AO52" s="122"/>
+      <c r="AP52" s="122"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="97"/>
@@ -5257,17 +5314,17 @@
       <c r="AA53" s="93"/>
       <c r="AC53" s="97"/>
       <c r="AD53" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE53" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI53" s="118"/>
-      <c r="AJ53" s="118"/>
-      <c r="AL53" s="118"/>
-      <c r="AM53" s="118"/>
-      <c r="AO53" s="118"/>
-      <c r="AP53" s="118"/>
+        <v>314</v>
+      </c>
+      <c r="AI53" s="122"/>
+      <c r="AJ53" s="122"/>
+      <c r="AL53" s="122"/>
+      <c r="AM53" s="122"/>
+      <c r="AO53" s="122"/>
+      <c r="AP53" s="122"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="97"/>
@@ -5296,17 +5353,17 @@
       <c r="AA54" s="93"/>
       <c r="AC54" s="97"/>
       <c r="AD54" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE54" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI54" s="118"/>
-      <c r="AJ54" s="118"/>
-      <c r="AL54" s="118"/>
-      <c r="AM54" s="118"/>
-      <c r="AO54" s="118"/>
-      <c r="AP54" s="118"/>
+        <v>315</v>
+      </c>
+      <c r="AI54" s="122"/>
+      <c r="AJ54" s="122"/>
+      <c r="AL54" s="122"/>
+      <c r="AM54" s="122"/>
+      <c r="AO54" s="122"/>
+      <c r="AP54" s="122"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="97"/>
@@ -5335,17 +5392,17 @@
       <c r="AA55" s="93"/>
       <c r="AC55" s="97"/>
       <c r="AD55" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE55" s="92" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI55" s="118"/>
-      <c r="AJ55" s="118"/>
-      <c r="AL55" s="118"/>
-      <c r="AM55" s="118"/>
-      <c r="AO55" s="118"/>
-      <c r="AP55" s="118"/>
+        <v>316</v>
+      </c>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122"/>
+      <c r="AO55" s="122"/>
+      <c r="AP55" s="122"/>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="97"/>
@@ -5374,17 +5431,17 @@
       <c r="AA56" s="93"/>
       <c r="AC56" s="97"/>
       <c r="AD56" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE56" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI56" s="118"/>
-      <c r="AJ56" s="118"/>
-      <c r="AL56" s="118"/>
-      <c r="AM56" s="118"/>
-      <c r="AO56" s="118"/>
-      <c r="AP56" s="118"/>
+        <v>317</v>
+      </c>
+      <c r="AI56" s="122"/>
+      <c r="AJ56" s="122"/>
+      <c r="AL56" s="122"/>
+      <c r="AM56" s="122"/>
+      <c r="AO56" s="122"/>
+      <c r="AP56" s="122"/>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="97"/>
@@ -5413,17 +5470,17 @@
       <c r="AA57" s="93"/>
       <c r="AC57" s="97"/>
       <c r="AD57" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE57" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI57" s="118"/>
-      <c r="AJ57" s="118"/>
-      <c r="AL57" s="118"/>
-      <c r="AM57" s="118"/>
-      <c r="AO57" s="118"/>
-      <c r="AP57" s="118"/>
+        <v>318</v>
+      </c>
+      <c r="AI57" s="122"/>
+      <c r="AJ57" s="122"/>
+      <c r="AL57" s="122"/>
+      <c r="AM57" s="122"/>
+      <c r="AO57" s="122"/>
+      <c r="AP57" s="122"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R58" s="97"/>
@@ -5438,29 +5495,29 @@
       <c r="AA58" s="93"/>
       <c r="AC58" s="97"/>
       <c r="AD58" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE58" s="92" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI58" s="118"/>
-      <c r="AJ58" s="118"/>
-      <c r="AL58" s="118"/>
-      <c r="AM58" s="118"/>
-      <c r="AO58" s="118"/>
-      <c r="AP58" s="118"/>
+        <v>319</v>
+      </c>
+      <c r="AI58" s="122"/>
+      <c r="AJ58" s="122"/>
+      <c r="AL58" s="122"/>
+      <c r="AM58" s="122"/>
+      <c r="AO58" s="122"/>
+      <c r="AP58" s="122"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="97"/>
-      <c r="B59" s="119" t="s">
-        <v>333</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
+      <c r="B59" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
       <c r="J59" s="89" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K59" s="89"/>
       <c r="L59" s="89"/>
@@ -5476,17 +5533,17 @@
       <c r="AA59" s="93"/>
       <c r="AC59" s="97"/>
       <c r="AD59" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE59" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI59" s="118"/>
-      <c r="AJ59" s="118"/>
-      <c r="AL59" s="118"/>
-      <c r="AM59" s="118"/>
-      <c r="AO59" s="118"/>
-      <c r="AP59" s="118"/>
+        <v>320</v>
+      </c>
+      <c r="AI59" s="122"/>
+      <c r="AJ59" s="122"/>
+      <c r="AL59" s="122"/>
+      <c r="AM59" s="122"/>
+      <c r="AO59" s="122"/>
+      <c r="AP59" s="122"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="97"/>
@@ -5516,33 +5573,33 @@
       <c r="L61" s="93"/>
       <c r="M61" s="93"/>
       <c r="P61" s="97"/>
-      <c r="Q61" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="R61" s="119"/>
-      <c r="S61" s="119"/>
-      <c r="T61" s="119"/>
-      <c r="U61" s="119"/>
+      <c r="Q61" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="R61" s="128"/>
+      <c r="S61" s="128"/>
+      <c r="T61" s="128"/>
+      <c r="U61" s="128"/>
       <c r="V61" s="97"/>
       <c r="W61" s="97"/>
       <c r="X61" s="97"/>
-      <c r="Y61" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z61" s="119"/>
-      <c r="AA61" s="119"/>
-      <c r="AB61" s="119"/>
-      <c r="AC61" s="119"/>
+      <c r="Y61" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z61" s="128"/>
+      <c r="AA61" s="128"/>
+      <c r="AB61" s="128"/>
+      <c r="AC61" s="128"/>
       <c r="AD61" s="97"/>
       <c r="AE61" s="97"/>
       <c r="AF61" s="97"/>
-      <c r="AG61" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH61" s="119"/>
-      <c r="AI61" s="119"/>
-      <c r="AJ61" s="119"/>
-      <c r="AK61" s="119"/>
+      <c r="AG61" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH61" s="128"/>
+      <c r="AI61" s="128"/>
+      <c r="AJ61" s="128"/>
+      <c r="AK61" s="128"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="97"/>
@@ -5879,49 +5936,104 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AO55:AP55"/>
+    <mergeCell ref="AO56:AP56"/>
+    <mergeCell ref="AO57:AP57"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AO59:AP59"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AO50:AP50"/>
+    <mergeCell ref="AO51:AP51"/>
+    <mergeCell ref="AO52:AP52"/>
+    <mergeCell ref="AO53:AP53"/>
+    <mergeCell ref="AO54:AP54"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="AL43:AM43"/>
+    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="AL45:AM45"/>
+    <mergeCell ref="AL46:AM46"/>
+    <mergeCell ref="AL48:AM48"/>
+    <mergeCell ref="AL49:AM49"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AO33:AP33"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AO36:AP36"/>
+    <mergeCell ref="AO37:AP37"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AO25:AP25"/>
+    <mergeCell ref="AO26:AP26"/>
+    <mergeCell ref="AO27:AP27"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AO31:AP31"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AO20:AP20"/>
+    <mergeCell ref="AO21:AP21"/>
+    <mergeCell ref="AO22:AP22"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AG61:AK61"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="Q61:U61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="AL58:AM58"/>
+    <mergeCell ref="AL59:AM59"/>
+    <mergeCell ref="AL52:AM52"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="AL54:AM54"/>
+    <mergeCell ref="AL55:AM55"/>
+    <mergeCell ref="AL56:AM56"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AO14:AP14"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="P10:AA10"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="M1:X2"/>
     <mergeCell ref="AD41:AH41"/>
     <mergeCell ref="AI41:AJ41"/>
@@ -5946,104 +6058,49 @@
     <mergeCell ref="AL24:AM24"/>
     <mergeCell ref="AL25:AM25"/>
     <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AL50:AM50"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AO17:AP17"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="P10:AA10"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AO20:AP20"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AO22:AP22"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="AG61:AK61"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="Q61:U61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="AL58:AM58"/>
-    <mergeCell ref="AL59:AM59"/>
-    <mergeCell ref="AL52:AM52"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="AL54:AM54"/>
-    <mergeCell ref="AL55:AM55"/>
-    <mergeCell ref="AL56:AM56"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AO33:AP33"/>
-    <mergeCell ref="AO35:AP35"/>
-    <mergeCell ref="AO36:AP36"/>
-    <mergeCell ref="AO37:AP37"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="AO25:AP25"/>
-    <mergeCell ref="AO26:AP26"/>
-    <mergeCell ref="AO27:AP27"/>
-    <mergeCell ref="AO28:AP28"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AO31:AP31"/>
-    <mergeCell ref="AO55:AP55"/>
-    <mergeCell ref="AO56:AP56"/>
-    <mergeCell ref="AO57:AP57"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AO59:AP59"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="AO49:AP49"/>
-    <mergeCell ref="AO50:AP50"/>
-    <mergeCell ref="AO51:AP51"/>
-    <mergeCell ref="AO52:AP52"/>
-    <mergeCell ref="AO53:AP53"/>
-    <mergeCell ref="AO54:AP54"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="AL43:AM43"/>
-    <mergeCell ref="AL44:AM44"/>
-    <mergeCell ref="AL45:AM45"/>
-    <mergeCell ref="AL46:AM46"/>
-    <mergeCell ref="AL48:AM48"/>
-    <mergeCell ref="AL49:AM49"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
@@ -6054,35 +6111,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="F5" s="154" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
+      <c r="A5" s="133" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="F5" s="133" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
@@ -6127,10 +6184,10 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="128"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
@@ -6165,15 +6222,15 @@
       <c r="L11" s="44">
         <v>10</v>
       </c>
-      <c r="N11" s="128" t="s">
+      <c r="N11" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="O11" s="128"/>
+      <c r="O11" s="132"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C12" s="50">
         <f>C8/C10/1000*365*24</f>
@@ -6182,7 +6239,7 @@
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H12" s="50">
         <f>H8/H10/1000*365*24</f>
@@ -6266,110 +6323,109 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="156" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157" t="s">
+      <c r="B19" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="131"/>
+      <c r="D19" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="E19" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="157" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
+      <c r="F19" s="113" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="135"/>
+      <c r="C20" s="130"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="135"/>
+      <c r="C21" s="130"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="135" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="135"/>
+      <c r="B22" s="130" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="130"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="155"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="112"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
@@ -6379,11 +6435,12 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F5:I6"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6394,61 +6451,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -6464,12 +6521,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
@@ -6531,8 +6588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6622,7 +6679,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H10" s="10">
         <v>780</v>
@@ -6636,7 +6693,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="85" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="H11" s="10">
         <v>1390</v>
@@ -6650,7 +6707,7 @@
         <v>90</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="H12" s="10">
         <v>1275</v>
@@ -6658,13 +6715,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="B13" s="10">
         <v>465</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="H13" s="10">
         <v>90</v>
@@ -7103,6 +7160,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7110,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,11 +7187,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
@@ -7301,7 +7359,7 @@
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C9" s="32">
         <v>1497</v>
@@ -7327,7 +7385,7 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C10" s="32">
         <v>814</v>
@@ -7573,7 +7631,7 @@
       <c r="B22" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="26"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -7654,7 +7712,7 @@
       <c r="B26" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="26"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -7758,7 +7816,7 @@
       <c r="B31" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="26"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -7816,7 +7874,7 @@
       <c r="B34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="26"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -7872,9 +7930,9 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="33"/>
+        <v>341</v>
+      </c>
+      <c r="C37" s="32"/>
       <c r="D37" s="26"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -8012,7 +8070,7 @@
       <c r="B45" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="26"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -8076,7 +8134,7 @@
       <c r="B48" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="26"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -8165,7 +8223,7 @@
       <c r="B52" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="26"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -8279,7 +8337,7 @@
       <c r="B57" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="26"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -8316,9 +8374,9 @@
     </row>
     <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C59" s="33"/>
+        <v>341</v>
+      </c>
+      <c r="C59" s="32"/>
       <c r="D59" s="26"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -8466,7 +8524,7 @@
       <c r="B67" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="26"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -8505,7 +8563,7 @@
       <c r="B69" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="26"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -8544,7 +8602,7 @@
       <c r="B71" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="33"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="26"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -8608,7 +8666,7 @@
       <c r="B74" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="26"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -8645,9 +8703,9 @@
     </row>
     <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C76" s="33"/>
+        <v>341</v>
+      </c>
+      <c r="C76" s="32"/>
       <c r="D76" s="26"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -8936,7 +8994,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8950,7 +9008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8964,7 +9022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8978,7 +9036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8992,7 +9050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9006,7 +9064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="100"/>
@@ -9020,7 +9078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="100"/>
@@ -9034,7 +9092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="100"/>
@@ -9048,7 +9106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="100"/>
@@ -9062,10 +9120,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="EarthTotPop"/>
+        <cfvo type="formula" val="MAX($C$4:$C$12)"/>
         <color rgb="FF0070C0"/>
       </dataBar>
       <extLst>
@@ -9075,22 +9133,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C12">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="EarthTotPop"/>
-        <color rgb="FF0070C0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C1316FA8-B90C-4B86-A6A8-81F6EFB6D128}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G4:I7">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9104,7 +9148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9118,7 +9162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9132,7 +9176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9146,7 +9190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9160,7 +9204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I12">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9174,7 +9218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:I33">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9188,7 +9232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:I56">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9202,7 +9246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:I73">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9216,7 +9260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89:I90">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9230,7 +9274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:I21 L17">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9244,7 +9288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:I44">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9258,7 +9302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:I66">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9272,7 +9316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:I82">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9286,7 +9330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:I25">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9300,7 +9344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:I47">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9314,7 +9358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:I68">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9328,7 +9372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I30">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9342,7 +9386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I51">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9356,7 +9400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:I70">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9370,7 +9414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:I87">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9384,7 +9428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:I38">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9398,7 +9442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:I60">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9412,7 +9456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:I77">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9426,7 +9470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:I36">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9440,7 +9484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:I58">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9454,7 +9498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:I75">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9463,6 +9507,132 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0D09C92A-DA72-42C9-BDCE-B5FD3BADB3E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="MAX($C$17:$C$38)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DCA314CB-222C-47B8-B412-B6D8F566D719}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C12">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="MAX($C$4:$C$12)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{186BB4B6-14AA-496F-884D-704FDE9AB39B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="MAX($C$43:$C$60)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3234F7DB-0B9F-4AA0-A8E4-E723E916CB55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="MAX($C$65:$C$77)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D73C21E-0F36-4D4A-8889-C961A3366A87}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C38">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="MAX($C$17:$C$38)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A45FBB2-FBE2-464D-B642-84E3BAFF5F9B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C60">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="MAX($C$43:$C$60)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D816012C-0021-4E2F-A16E-B7704272F415}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C77">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="MAX($C$65:$C$77)"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CFE81EB0-4D04-4A59-A261-F2E6623C6E7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8E46761-78A1-48D5-8F13-48E2F382B5F9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FF0070C0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{410FD375-A99E-4032-AB6B-53E4A48F107C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9605,28 +9775,13 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="formula">
-                <xm:f>EarthTotPop</xm:f>
+                <xm:f>MAX($C$4:$C$12)</xm:f>
               </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C1316FA8-B90C-4B86-A6A8-81F6EFB6D128}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>EarthTotPop</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C5:C12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CF0E773A-7B0A-4ED4-991A-E8D45AE9FCB3}">
@@ -10033,6 +10188,129 @@
           </x14:cfRule>
           <xm:sqref>G75:I75</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DCA314CB-222C-47B8-B412-B6D8F566D719}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$17:$C$38)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{186BB4B6-14AA-496F-884D-704FDE9AB39B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>MAX($C$4:$C$12)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3234F7DB-0B9F-4AA0-A8E4-E723E916CB55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$43:$C$60)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D73C21E-0F36-4D4A-8889-C961A3366A87}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$65:$C$77)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A45FBB2-FBE2-464D-B642-84E3BAFF5F9B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$17:$C$38)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D816012C-0021-4E2F-A16E-B7704272F415}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$43:$C$60)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C44:C60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CFE81EB0-4D04-4A59-A261-F2E6623C6E7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>MAX($C$65:$C$77)</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C66:C77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8E46761-78A1-48D5-8F13-48E2F382B5F9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{410FD375-A99E-4032-AB6B-53E4A48F107C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C89</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -10043,7 +10321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
@@ -10054,42 +10332,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
@@ -10104,428 +10382,428 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="147" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="75"/>
       <c r="E8" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="145"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="79"/>
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="137" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="82">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="144">
         <f>E9*TotRev</f>
         <v>24353.458643765774</v>
       </c>
-      <c r="G9" s="144"/>
+      <c r="G9" s="145"/>
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="137" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="69">
         <v>0.155</v>
       </c>
-      <c r="F10" s="141">
+      <c r="F10" s="139">
         <f t="shared" ref="F10:F31" si="0">E10*TotRev</f>
         <v>16062.919530994448</v>
       </c>
-      <c r="G10" s="142"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="69">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F11" s="141">
+      <c r="F11" s="139">
         <f t="shared" si="0"/>
         <v>14922.970402988389</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="137" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="69">
         <v>0.127</v>
       </c>
-      <c r="F12" s="141">
+      <c r="F12" s="139">
         <f t="shared" si="0"/>
         <v>13161.230841524484</v>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="80"/>
       <c r="I12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="69">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F13" s="141">
+      <c r="F13" s="139">
         <f t="shared" si="0"/>
         <v>10674.069107693083</v>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="69">
         <v>6.3E-2</v>
       </c>
-      <c r="F14" s="141">
+      <c r="F14" s="139">
         <f t="shared" si="0"/>
         <v>6528.7995513074211</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="137" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="69">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="139">
         <f t="shared" si="0"/>
         <v>4974.3234676627972</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="69">
         <v>0.04</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="139">
         <f t="shared" si="0"/>
         <v>4145.2695563856641</v>
       </c>
-      <c r="G16" s="142"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F17" s="141">
+      <c r="F17" s="139">
         <f t="shared" si="0"/>
         <v>2694.4252116506814</v>
       </c>
-      <c r="G17" s="142"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="69">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F18" s="141">
+      <c r="F18" s="139">
         <f t="shared" si="0"/>
         <v>2176.2665171024737</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="140"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="69">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F19" s="141">
+      <c r="F19" s="139">
         <f t="shared" si="0"/>
         <v>1761.7395614639074</v>
       </c>
-      <c r="G19" s="142"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="80"/>
       <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="69">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F20" s="141">
+      <c r="F20" s="139">
         <f t="shared" si="0"/>
         <v>1554.4760836446239</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="137" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="69">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F21" s="141">
+      <c r="F21" s="139">
         <f t="shared" si="0"/>
         <v>1347.2126058253407</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="80"/>
       <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="69">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F22" s="141">
+      <c r="F22" s="139">
         <f t="shared" si="0"/>
         <v>1139.9491280060574</v>
       </c>
-      <c r="G22" s="142"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="69">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F23" s="141">
+      <c r="F23" s="139">
         <f t="shared" si="0"/>
         <v>932.6856501867743</v>
       </c>
-      <c r="G23" s="142"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="80"/>
       <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="137" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="69">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F24" s="141">
+      <c r="F24" s="139">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G24" s="142"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="80"/>
       <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="137" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="69">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F25" s="141">
+      <c r="F25" s="139">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="80"/>
       <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="69">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F26" s="141">
+      <c r="F26" s="139">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G26" s="142"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="80"/>
       <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="75"/>
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="69">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="141">
+      <c r="F27" s="139">
         <f t="shared" si="0"/>
         <v>310.89521672892482</v>
       </c>
-      <c r="G27" s="142"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
       <c r="E28" s="69">
         <v>2E-3</v>
       </c>
-      <c r="F28" s="141">
+      <c r="F28" s="139">
         <f t="shared" si="0"/>
         <v>207.2634778192832</v>
       </c>
-      <c r="G28" s="142"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="80"/>
       <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="75"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="69">
         <v>0</v>
       </c>
-      <c r="F29" s="141">
+      <c r="F29" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="142"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="80"/>
       <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="69">
         <v>0</v>
       </c>
-      <c r="F30" s="141">
+      <c r="F30" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="142"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="80"/>
       <c r="I30" s="80"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="142"/>
       <c r="E31" s="69">
         <v>-0.02</v>
       </c>
-      <c r="F31" s="141">
+      <c r="F31" s="139">
         <f t="shared" si="0"/>
         <v>-2072.6347781928321</v>
       </c>
-      <c r="G31" s="142"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="80"/>
       <c r="I31" s="80"/>
     </row>
@@ -10543,21 +10821,21 @@
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="147" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="133"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="70">
         <f>SUM(E9:E23)</f>
         <v>1.0269999999999999</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="148">
         <f>SUM(F9:F23)</f>
         <v>106429.79586020192</v>
       </c>
-      <c r="G33" s="132"/>
+      <c r="G33" s="148"/>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I33" s="75"/>
     </row>
@@ -10585,10 +10863,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="75"/>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="133"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="81"/>
       <c r="E36" s="78"/>
       <c r="F36" s="75"/>
@@ -10598,10 +10876,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="75"/>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="138"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="69">
         <v>0.05</v>
       </c>
@@ -10616,10 +10894,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="75"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="137"/>
       <c r="D38" s="69">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -10634,10 +10912,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="75"/>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="69">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -10652,10 +10930,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="75"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="138"/>
+      <c r="C40" s="137"/>
       <c r="D40" s="71">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -10681,17 +10959,17 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="147" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="133"/>
-      <c r="D42" s="137">
+      <c r="C42" s="147"/>
+      <c r="D42" s="151">
         <f>SUM(E37:E40)</f>
         <v>103631.7389096416</v>
       </c>
-      <c r="E42" s="137"/>
+      <c r="E42" s="151"/>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G42" s="75"/>
       <c r="H42" s="75"/>
@@ -10721,17 +10999,17 @@
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="75"/>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="147" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="134">
+      <c r="C45" s="147"/>
+      <c r="D45" s="149">
         <f>TotRev-F33</f>
         <v>-2798.0569505603198</v>
       </c>
-      <c r="E45" s="134"/>
+      <c r="E45" s="149"/>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="75"/>
@@ -10739,16 +11017,16 @@
     </row>
     <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="75"/>
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136">
+      <c r="C46" s="130"/>
+      <c r="D46" s="150">
         <v>-1780</v>
       </c>
-      <c r="E46" s="136"/>
+      <c r="E46" s="150"/>
       <c r="F46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G46" s="75"/>
       <c r="H46" s="75"/>
@@ -10770,36 +11048,24 @@
     <sortCondition descending="1" ref="E9:E31"/>
   </sortState>
   <mergeCells count="62">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="D2:J5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
@@ -10814,24 +11080,36 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="D45:E45">
     <cfRule type="expression" dxfId="3" priority="9">
@@ -11527,10 +11805,10 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
-      <c r="W31" s="149" t="s">
+      <c r="W31" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="X31" s="149"/>
+      <c r="X31" s="153"/>
       <c r="Y31">
         <v>0.58750000000000002</v>
       </c>
@@ -11547,10 +11825,10 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="W32" s="148" t="s">
+      <c r="W32" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="X32" s="148"/>
+      <c r="X32" s="152"/>
       <c r="Y32">
         <v>0.86159535129424203</v>
       </c>
@@ -11567,10 +11845,10 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="W33" s="153" t="s">
+      <c r="W33" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="X33" s="153"/>
+      <c r="X33" s="157"/>
       <c r="Y33">
         <v>0.93631931748933583</v>
       </c>
@@ -11587,10 +11865,10 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="1"/>
-      <c r="W34" s="152" t="s">
+      <c r="W34" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="X34" s="152"/>
+      <c r="X34" s="156"/>
       <c r="Y34">
         <v>0.68110236220472442</v>
       </c>
@@ -11608,10 +11886,10 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="W35" s="151" t="s">
+      <c r="W35" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="X35" s="151"/>
+      <c r="X35" s="155"/>
       <c r="Y35">
         <v>0.89855942376950781</v>
       </c>
@@ -11628,10 +11906,10 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="1"/>
       <c r="S36" s="24"/>
-      <c r="W36" s="150" t="s">
+      <c r="W36" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="X36" s="150"/>
+      <c r="X36" s="154"/>
       <c r="Y36">
         <v>0.7371007371007372</v>
       </c>

--- a/HEXAGON.xlsx
+++ b/HEXAGON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\HEXAGON-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,29 +13,32 @@
   </bookViews>
   <sheets>
     <sheet name="Mechanics" sheetId="2" r:id="rId1"/>
-    <sheet name="Character Sheet" sheetId="11" r:id="rId2"/>
-    <sheet name="Interstellar Travel" sheetId="8" r:id="rId3"/>
-    <sheet name="World Union Members" sheetId="7" r:id="rId4"/>
-    <sheet name="World Union Management" sheetId="9" r:id="rId5"/>
-    <sheet name="StockMarket" sheetId="12" r:id="rId6"/>
-    <sheet name="Lore" sheetId="1" r:id="rId7"/>
-    <sheet name="DATA" sheetId="6" r:id="rId8"/>
+    <sheet name="Perks" sheetId="13" r:id="rId2"/>
+    <sheet name="Character Sheet" sheetId="11" r:id="rId3"/>
+    <sheet name="Interstellar Travel" sheetId="8" r:id="rId4"/>
+    <sheet name="World Union Members" sheetId="7" r:id="rId5"/>
+    <sheet name="World Union Management" sheetId="9" r:id="rId6"/>
+    <sheet name="StockMarket" sheetId="12" r:id="rId7"/>
+    <sheet name="Lore" sheetId="1" r:id="rId8"/>
+    <sheet name="DATA" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="AbltyCost">Mechanics!$AA$3:$AB$21</definedName>
     <definedName name="DBG">'World Union Members'!$D$4</definedName>
     <definedName name="DBP">'World Union Members'!$C$4</definedName>
+    <definedName name="Diff">Mechanics!$D$28</definedName>
     <definedName name="EarthTotPop">'World Union Members'!$C$13</definedName>
     <definedName name="EFG">'World Union Members'!$D$7</definedName>
     <definedName name="EFP">'World Union Members'!$C$7</definedName>
     <definedName name="ICG">'World Union Members'!$D$6</definedName>
     <definedName name="ICP">'World Union Members'!$C$6</definedName>
     <definedName name="LunaPopTot">'World Union Members'!$C$39</definedName>
+    <definedName name="Lvl">Mechanics!$D$29</definedName>
     <definedName name="PAAG">'World Union Members'!$D$5</definedName>
     <definedName name="PAAP">'World Union Members'!$C$5</definedName>
     <definedName name="SFG">'World Union Members'!$D$10</definedName>
     <definedName name="SFP">'World Union Members'!$C$10</definedName>
-    <definedName name="SkillCost">Mechanics!$V$18:$W$38</definedName>
+    <definedName name="SkillCost">Mechanics!$V$18:$W$39</definedName>
     <definedName name="TotRev">'World Union Management'!$D$42</definedName>
     <definedName name="UAPG">'World Union Members'!$D$9</definedName>
     <definedName name="UAPP">'World Union Members'!$C$9</definedName>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="337">
   <si>
     <t>Abilities</t>
   </si>
@@ -982,24 +985,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>7-10</t>
-  </si>
-  <si>
-    <t>10-13</t>
-  </si>
-  <si>
-    <t>14-17</t>
-  </si>
-  <si>
-    <t>18-20</t>
-  </si>
-  <si>
     <t>Untrained</t>
   </si>
   <si>
@@ -1019,19 +1004,105 @@
   </si>
   <si>
     <t>Market</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Tactics</t>
+  </si>
+  <si>
+    <t>Acrobatics</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>Tool Quality</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>High-Tech</t>
+  </si>
+  <si>
+    <t>Roll Difficulty</t>
+  </si>
+  <si>
+    <t>Very Easy</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>Challenging</t>
+  </si>
+  <si>
+    <t>Nearly Impossible</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Very Hard</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +1393,36 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -1392,12 +1493,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1441,6 +1536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,10 +1703,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1691,9 +1793,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,31 +1835,31 @@
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1769,12 +1871,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,52 +1910,68 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1958,18 +2076,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -2354,30 +2467,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AB55"/>
+  <dimension ref="B3:AB56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="9.140625" style="89"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="11.85546875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="AA3" s="2">
         <v>1</v>
       </c>
@@ -2386,11 +2503,11 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
       <c r="AA4" s="2">
         <v>2</v>
       </c>
@@ -2407,20 +2524,20 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="160" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="123" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="J6" s="115" t="s">
+      <c r="F6" s="123"/>
+      <c r="J6" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
       <c r="AA6" s="2">
         <v>4</v>
       </c>
@@ -2429,10 +2546,10 @@
       </c>
     </row>
     <row r="7" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="F7" s="110" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="99" t="s">
@@ -2457,35 +2574,32 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="49">
         <f>VLOOKUP(E8,AbltyCost,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="I8" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="2">
-        <f>VLOOKUP(K8,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="90"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
       <c r="O8" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="P8" s="163" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q8" s="163"/>
+      <c r="Q8" s="116"/>
       <c r="AA8" s="2">
         <v>6</v>
       </c>
@@ -2494,35 +2608,35 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="48">
         <v>6</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <f>VLOOKUP(E9,AbltyCost,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="I9" s="93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="90"/>
       <c r="L9" s="2">
-        <f t="shared" ref="L8:L13" si="0">VLOOKUP(K9,SkillCost,2,FALSE)</f>
+        <f>VLOOKUP(K9,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M9" s="90"/>
       <c r="O9" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="116" t="s">
         <v>303</v>
       </c>
-      <c r="P9" s="163" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q9" s="163"/>
+      <c r="Q9" s="116"/>
       <c r="AA9" s="2">
         <v>7</v>
       </c>
@@ -2531,35 +2645,35 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
+      <c r="B10" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="48">
         <v>5</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <f>VLOOKUP(E10,AbltyCost,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I10" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="90"/>
       <c r="L10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L10:L14" si="0">VLOOKUP(K10,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M10" s="90"/>
       <c r="O10" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="P10" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="P10" s="163" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q10" s="163"/>
+      <c r="Q10" s="116"/>
       <c r="AA10" s="2">
         <v>8</v>
       </c>
@@ -2568,15 +2682,15 @@
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="B11" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="48">
         <v>5</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="49">
         <f>VLOOKUP(E11,AbltyCost,2,FALSE)</f>
         <v>5</v>
       </c>
@@ -2591,12 +2705,12 @@
       </c>
       <c r="M11" s="90"/>
       <c r="O11" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="P11" s="163" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q11" s="163"/>
+      <c r="Q11" s="116"/>
       <c r="X11" s="52"/>
       <c r="AA11" s="2">
         <v>9</v>
@@ -2606,18 +2720,6 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="48">
-        <v>4</v>
-      </c>
-      <c r="F12" s="49">
-        <f>VLOOKUP(E12,AbltyCost,2,FALSE)</f>
-        <v>4</v>
-      </c>
       <c r="I12" s="93" t="s">
         <v>203</v>
       </c>
@@ -2629,12 +2731,12 @@
       </c>
       <c r="M12" s="90"/>
       <c r="O12" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="P12" s="116" t="s">
         <v>306</v>
       </c>
-      <c r="P12" s="163" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q12" s="163"/>
+      <c r="Q12" s="116"/>
       <c r="X12" s="52"/>
       <c r="AA12" s="2">
         <v>10</v>
@@ -2644,91 +2746,107 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="48">
+        <v>4</v>
+      </c>
+      <c r="F13" s="50">
+        <f>VLOOKUP(E13,AbltyCost,2,FALSE)</f>
+        <v>4</v>
+      </c>
       <c r="I13" s="93" t="s">
         <v>204</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="90"/>
       <c r="L13" s="2">
+        <f t="shared" ref="L13" si="1">VLOOKUP(K13,SkillCost,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="90"/>
+      <c r="O13" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="P13" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q13" s="116"/>
+      <c r="X13" s="52"/>
+      <c r="AB13" s="52"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="48">
+        <v>4</v>
+      </c>
+      <c r="F14" s="49">
+        <f>VLOOKUP(E14,AbltyCost,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="90"/>
-      <c r="O13" s="109" t="s">
-        <v>307</v>
-      </c>
-      <c r="P13" s="163" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q13" s="163"/>
-      <c r="X13" s="52"/>
-      <c r="AB13" s="52"/>
-    </row>
-    <row r="14" spans="2:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="48">
-        <v>3</v>
-      </c>
-      <c r="F14" s="49">
-        <f>VLOOKUP(E14,AbltyCost,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="M14"/>
+      <c r="M14" s="90"/>
       <c r="O14" s="109"/>
       <c r="X14" s="52"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="50">
         <f>VLOOKUP(E15,AbltyCost,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I15" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="2">
-        <f t="shared" ref="L15:L25" si="1">VLOOKUP(K15,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="90"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
       <c r="O15" s="109"/>
       <c r="X15" s="52"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
+      <c r="B16" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="49">
         <f>VLOOKUP(E16,AbltyCost,2,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="90"/>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L16:L26" si="2">VLOOKUP(K16,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="90"/>
@@ -2736,25 +2854,13 @@
       <c r="X16" s="52"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="48">
-        <v>3</v>
-      </c>
-      <c r="F17" s="50">
-        <f>VLOOKUP(E17,AbltyCost,2,FALSE)</f>
-        <v>3</v>
-      </c>
       <c r="I17" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="90"/>
       <c r="L17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="90"/>
@@ -2762,25 +2868,17 @@
       <c r="X17" s="52"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="48">
-        <v>3</v>
-      </c>
-      <c r="F18" s="49">
-        <f>VLOOKUP(E18,AbltyCost,2,FALSE)</f>
-        <v>3</v>
+      <c r="F18" s="51">
+        <f>40-SUM(F8:F16)</f>
+        <v>0</v>
       </c>
       <c r="I18" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="90"/>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="90"/>
@@ -2794,13 +2892,16 @@
       <c r="X18" s="52"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
       <c r="I19" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="90"/>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="90"/>
@@ -2814,17 +2915,13 @@
       <c r="X19" s="52"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="F20" s="51">
-        <f>50-SUM(F8:F18)</f>
-        <v>0</v>
-      </c>
       <c r="I20" s="93" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="90"/>
       <c r="L20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="90"/>
@@ -2842,12 +2939,12 @@
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
       <c r="I21" s="93" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="90"/>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="90"/>
@@ -2862,12 +2959,12 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I22" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="90"/>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="90"/>
@@ -2884,12 +2981,12 @@
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
       <c r="I23" s="93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="90"/>
       <c r="L23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="90"/>
@@ -2903,16 +3000,16 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I24" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="90"/>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="90"/>
-      <c r="O24" s="162"/>
+      <c r="O24" s="111"/>
       <c r="V24" s="2">
         <v>6</v>
       </c>
@@ -2921,20 +3018,17 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
       <c r="I25" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="90"/>
       <c r="L25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="90"/>
-      <c r="O25" s="162"/>
+      <c r="O25" s="111"/>
       <c r="V25" s="2">
         <v>7</v>
       </c>
@@ -2942,11 +3036,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I26" s="93"/>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I26" s="93" t="s">
+        <v>216</v>
+      </c>
       <c r="J26" s="94"/>
-      <c r="M26"/>
-      <c r="O26" s="162"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="90"/>
+      <c r="O26" s="111"/>
       <c r="V26" s="2">
         <v>8</v>
       </c>
@@ -2955,17 +3056,14 @@
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="I27" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="2">
-        <f>VLOOKUP(K27,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="90"/>
-      <c r="O27" s="162"/>
+      <c r="I27" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="O27" s="111"/>
       <c r="V27" s="2">
         <v>9</v>
       </c>
@@ -2974,8 +3072,11 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C28" s="112" t="s">
+        <v>313</v>
+      </c>
       <c r="I28" s="93" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="90"/>
@@ -2984,7 +3085,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="90"/>
-      <c r="O28" s="162"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="V28" s="2">
         <v>10</v>
       </c>
@@ -2993,8 +3097,14 @@
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
       <c r="I29" s="93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="90"/>
@@ -3003,28 +3113,52 @@
         <v>0</v>
       </c>
       <c r="M29" s="90"/>
-      <c r="O29" s="162"/>
-      <c r="V29" s="2">
+      <c r="O29" s="111"/>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="168">
+        <v>20</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I30" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="2">
+        <f>VLOOKUP(K30,SkillCost,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="90"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="168">
+        <v>40</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V30" s="2">
         <v>11</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W30" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="M30"/>
-      <c r="V30" s="2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <f>5+6+(Diff*3+1)</f>
         <v>12</v>
       </c>
-      <c r="W30" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I31" s="93" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="90"/>
@@ -3033,34 +3167,49 @@
         <v>0</v>
       </c>
       <c r="M31" s="90"/>
+      <c r="P31" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="168">
+        <v>60</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="V31" s="2">
+        <v>12</v>
+      </c>
+      <c r="W31" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I32" s="169" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="P32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="168">
+        <v>80</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V32" s="2">
         <v>13</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W32" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="I32" s="93" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32" s="94"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="2">
-        <f>VLOOKUP(K32,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="90"/>
-      <c r="V32" s="2">
-        <v>14</v>
-      </c>
-      <c r="W32" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="9:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I33" s="93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J33" s="94"/>
       <c r="K33" s="90"/>
@@ -3069,16 +3218,29 @@
         <v>0</v>
       </c>
       <c r="M33" s="90"/>
+      <c r="P33" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="168">
+        <v>100</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="V33" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W33" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C34" s="116" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="116"/>
       <c r="I34" s="93" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="90"/>
@@ -3087,31 +3249,66 @@
         <v>0</v>
       </c>
       <c r="M34" s="90"/>
+      <c r="P34" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="168">
+        <f>100+(P34-5)*(25+((P34-5)*10))</f>
+        <v>135</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="V34" s="2">
+        <v>15</v>
+      </c>
+      <c r="W34" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I35" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="2">
+        <f>VLOOKUP(K35,SkillCost,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="90"/>
+      <c r="P35" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="168">
+        <f>100+(P35-5)*(25+((P35-5)*10))</f>
+        <v>190</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V35" s="2">
         <v>16</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W35" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="9:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="I35" s="114" t="s">
-        <v>278</v>
-      </c>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="86"/>
-      <c r="V35" s="2">
-        <v>17</v>
-      </c>
-      <c r="W35" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
       <c r="I36" s="93" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="90"/>
@@ -3120,52 +3317,94 @@
         <v>0</v>
       </c>
       <c r="M36" s="90"/>
+      <c r="P36" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="168">
+        <f t="shared" ref="Q36:Q42" si="3">100+(P36-5)*(25+((P36-5)*10))</f>
+        <v>265</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="V36" s="2">
+        <v>17</v>
+      </c>
+      <c r="W36" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="86"/>
+      <c r="P37" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="168">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V37" s="2">
         <v>18</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W37" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I37" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="2">
-        <f>VLOOKUP(K37,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="90"/>
-      <c r="V37" s="2">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C38" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="I38" s="169" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="P38" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="168">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V38" s="2">
         <v>19</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W38" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I38" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="2">
-        <f>VLOOKUP(K38,SkillCost,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="90"/>
-      <c r="V38" s="2">
-        <v>20</v>
-      </c>
-      <c r="W38" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="9:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C39" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6</v>
+      </c>
       <c r="I39" s="93" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J39" s="94"/>
       <c r="K39" s="90"/>
@@ -3174,206 +3413,424 @@
         <v>0</v>
       </c>
       <c r="M39" s="90"/>
-    </row>
-    <row r="40" spans="9:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="I40" s="93"/>
+      <c r="P39" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="168">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V39" s="2">
+        <v>20</v>
+      </c>
+      <c r="W39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I40" s="93" t="s">
+        <v>240</v>
+      </c>
       <c r="J40" s="94"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="K40" s="90"/>
+      <c r="L40" s="2">
+        <f>VLOOKUP(K40,SkillCost,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="90"/>
+      <c r="P40" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="168">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I41" s="93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J41" s="94"/>
       <c r="K41" s="90"/>
       <c r="L41" s="2">
-        <f t="shared" ref="L41:L53" si="2">VLOOKUP(K41,SkillCost,2,FALSE)</f>
+        <f>VLOOKUP(K41,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M41" s="90"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I42" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="J42" s="96"/>
+      <c r="P41" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="168">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="I42" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" s="94"/>
       <c r="K42" s="90"/>
       <c r="L42" s="2">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(K42,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M42" s="90"/>
-    </row>
-    <row r="43" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I43" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="J43" s="96"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="90"/>
-    </row>
-    <row r="44" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I44" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="J44" s="96"/>
+      <c r="P42" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="168">
+        <f t="shared" si="3"/>
+        <v>1135</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C43" s="115" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="115"/>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="I43" s="169" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" s="169"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="169"/>
+      <c r="P43" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="168">
+        <f>100+(P43-5)*(25+((P43-5)*10))</f>
+        <v>1350</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C44" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="115"/>
+      <c r="E44" s="2">
+        <v>8</v>
+      </c>
+      <c r="I44" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" s="94"/>
       <c r="K44" s="90"/>
       <c r="L44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L44:L56" si="4">VLOOKUP(K44,SkillCost,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M44" s="90"/>
-    </row>
-    <row r="45" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="P44" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="168">
+        <f>100+(P44-5)*(25+((P44-5)*10))</f>
+        <v>1585</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C45" s="115" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" s="115"/>
+      <c r="E45" s="2">
+        <v>11</v>
+      </c>
       <c r="I45" s="95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J45" s="96"/>
       <c r="K45" s="90"/>
       <c r="L45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M45" s="90"/>
-    </row>
-    <row r="46" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="P45" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="168">
+        <f>100+(P45-5)*(25+((P45-5)*10))</f>
+        <v>1840</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C46" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="115"/>
+      <c r="E46" s="2">
+        <v>15</v>
+      </c>
       <c r="I46" s="95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J46" s="96"/>
       <c r="K46" s="90"/>
       <c r="L46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M46" s="90"/>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="P46" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="168">
+        <f t="shared" ref="Q46:Q48" si="5">100+(P46-5)*(25+((P46-5)*10))</f>
+        <v>2115</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C47" s="115" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="115"/>
+      <c r="E47" s="2">
+        <v>19</v>
+      </c>
       <c r="I47" s="95" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="J47" s="96"/>
       <c r="K47" s="90"/>
       <c r="L47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M47" s="90"/>
-    </row>
-    <row r="48" spans="9:23" x14ac:dyDescent="0.2">
-      <c r="I48" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="J48" s="94"/>
+      <c r="P47" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="168">
+        <f t="shared" si="5"/>
+        <v>2410</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C48" s="115" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="115"/>
+      <c r="E48" s="2">
+        <v>23</v>
+      </c>
+      <c r="I48" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="96"/>
       <c r="K48" s="90"/>
       <c r="L48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48" s="90"/>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I49" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="J49" s="94"/>
+      <c r="P48" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="168">
+        <f t="shared" si="5"/>
+        <v>2725</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C49" s="115" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="115"/>
+      <c r="E49" s="2">
+        <v>27</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="J49" s="96"/>
       <c r="K49" s="90"/>
       <c r="L49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M49" s="90"/>
     </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I50" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="J50" s="94"/>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C50" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="115"/>
+      <c r="E50" s="2">
+        <v>31</v>
+      </c>
+      <c r="I50" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" s="96"/>
       <c r="K50" s="90"/>
       <c r="L50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M50" s="90"/>
     </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I51" s="93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J51" s="94"/>
       <c r="K51" s="90"/>
       <c r="L51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M51" s="90"/>
     </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I52" s="93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J52" s="94"/>
       <c r="K52" s="90"/>
       <c r="L52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M52" s="90"/>
     </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I53" s="93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J53" s="94"/>
       <c r="K53" s="90"/>
       <c r="L53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M53" s="90"/>
     </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="O55" s="92"/>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I54" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" s="94"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="90"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I55" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="94"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="90"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I56" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="94"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="90"/>
+      <c r="O56" s="92"/>
     </row>
   </sheetData>
-  <sortState ref="I15:I25">
-    <sortCondition ref="I15"/>
+  <sortState ref="B14:D17">
+    <sortCondition ref="B14"/>
   </sortState>
-  <mergeCells count="21">
+  <mergeCells count="35">
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I32:M32"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I37:L37"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I8:M8"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$F$20&lt;0</formula>
+      <formula>$F$18&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
+  <conditionalFormatting sqref="L58">
     <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$L$55&lt;0</formula>
+      <formula>$L$58&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3383,6 +3840,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP70"/>
   <sheetViews>
@@ -3415,20 +3886,20 @@
       <c r="J1" s="75"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="128" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
       <c r="Y1" s="75"/>
       <c r="Z1" s="75"/>
       <c r="AA1" s="75"/>
@@ -3458,18 +3929,18 @@
       <c r="J2" s="75"/>
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
       <c r="Y2" s="75"/>
       <c r="Z2" s="75"/>
       <c r="AA2" s="75"/>
@@ -3578,71 +4049,71 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="118"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="P10" s="118" t="s">
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="P10" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
       <c r="AC10" s="86"/>
-      <c r="AD10" s="117" t="s">
+      <c r="AD10" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="118" t="s">
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="AJ10" s="118"/>
-      <c r="AL10" s="118" t="s">
+      <c r="AJ10" s="126"/>
+      <c r="AL10" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="AM10" s="118"/>
-      <c r="AO10" s="118" t="s">
+      <c r="AM10" s="126"/>
+      <c r="AO10" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="AP10" s="118"/>
+      <c r="AP10" s="126"/>
     </row>
     <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="86"/>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
@@ -3669,15 +4140,15 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="86"/>
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
@@ -3703,24 +4174,24 @@
       <c r="AE12" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="116"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="86"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
@@ -3746,24 +4217,24 @@
       <c r="AE13" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="116"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="124"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="86"/>
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
@@ -3789,24 +4260,24 @@
       <c r="AE14" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AO14" s="116"/>
-      <c r="AP14" s="116"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="86"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
@@ -3832,20 +4303,20 @@
       <c r="AE15" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AO15" s="116"/>
-      <c r="AP15" s="116"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
       <c r="I16" s="86"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
@@ -3871,24 +4342,24 @@
       <c r="AE16" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="86"/>
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
@@ -3914,24 +4385,24 @@
       <c r="AE17" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="116"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AL17" s="124"/>
+      <c r="AM17" s="124"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="124"/>
     </row>
     <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="86"/>
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
@@ -3957,15 +4428,15 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="86"/>
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
@@ -3991,24 +4462,24 @@
       <c r="AE19" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AO19" s="116"/>
-      <c r="AP19" s="116"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="86"/>
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
@@ -4034,24 +4505,24 @@
       <c r="AE20" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AO20" s="116"/>
-      <c r="AP20" s="116"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="124"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="124"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="86"/>
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
@@ -4077,12 +4548,12 @@
       <c r="AE21" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AO21" s="116"/>
-      <c r="AP21" s="116"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J22" s="84"/>
@@ -4097,34 +4568,34 @@
       <c r="AE22" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="AI22" s="116"/>
-      <c r="AJ22" s="116"/>
-      <c r="AL22" s="116"/>
-      <c r="AM22" s="116"/>
-      <c r="AO22" s="116"/>
-      <c r="AP22" s="116"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="124"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
       <c r="M23" s="84"/>
       <c r="N23" s="84"/>
       <c r="R23" s="86"/>
-      <c r="S23" s="117" t="s">
+      <c r="S23" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
       <c r="Y23" s="78" t="s">
         <v>267</v>
       </c>
@@ -4135,20 +4606,20 @@
       <c r="AE23" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116"/>
-      <c r="AL23" s="116"/>
-      <c r="AM23" s="116"/>
-      <c r="AO23" s="116"/>
-      <c r="AP23" s="116"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="77" t="s">
         <v>262</v>
       </c>
@@ -4174,20 +4645,20 @@
       <c r="AE24" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AL24" s="124"/>
+      <c r="AM24" s="124"/>
+      <c r="AO24" s="124"/>
+      <c r="AP24" s="124"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
       <c r="H25" s="77" t="s">
         <v>262</v>
       </c>
@@ -4213,12 +4684,12 @@
       <c r="AE25" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="116"/>
-      <c r="AL25" s="116"/>
-      <c r="AM25" s="116"/>
-      <c r="AO25" s="116"/>
-      <c r="AP25" s="116"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J26" s="84"/>
@@ -4242,12 +4713,12 @@
       <c r="AE26" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="AI26" s="116"/>
-      <c r="AJ26" s="116"/>
-      <c r="AL26" s="116"/>
-      <c r="AM26" s="116"/>
-      <c r="AO26" s="116"/>
-      <c r="AP26" s="116"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="124"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J27" s="84"/>
@@ -4271,12 +4742,12 @@
       <c r="AE27" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="AI27" s="116"/>
-      <c r="AJ27" s="116"/>
-      <c r="AL27" s="116"/>
-      <c r="AM27" s="116"/>
-      <c r="AO27" s="116"/>
-      <c r="AP27" s="116"/>
+      <c r="AI27" s="124"/>
+      <c r="AJ27" s="124"/>
+      <c r="AL27" s="124"/>
+      <c r="AM27" s="124"/>
+      <c r="AO27" s="124"/>
+      <c r="AP27" s="124"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="J28" s="84"/>
@@ -4300,12 +4771,12 @@
       <c r="AE28" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="116"/>
-      <c r="AL28" s="116"/>
-      <c r="AM28" s="116"/>
-      <c r="AO28" s="116"/>
-      <c r="AP28" s="116"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="124"/>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="124"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R29" s="86"/>
@@ -4324,12 +4795,12 @@
       <c r="AE29" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="AI29" s="116"/>
-      <c r="AJ29" s="116"/>
-      <c r="AL29" s="116"/>
-      <c r="AM29" s="116"/>
-      <c r="AO29" s="116"/>
-      <c r="AP29" s="116"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AL29" s="124"/>
+      <c r="AM29" s="124"/>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="124"/>
     </row>
     <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R30" s="86"/>
@@ -4363,12 +4834,12 @@
       <c r="AE31" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="AI31" s="116"/>
-      <c r="AJ31" s="116"/>
-      <c r="AL31" s="116"/>
-      <c r="AM31" s="116"/>
-      <c r="AO31" s="116"/>
-      <c r="AP31" s="116"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="124"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="124"/>
+      <c r="AO31" s="124"/>
+      <c r="AP31" s="124"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R32" s="86"/>
@@ -4387,12 +4858,12 @@
       <c r="AE32" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AO32" s="116"/>
-      <c r="AP32" s="116"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AL32" s="124"/>
+      <c r="AM32" s="124"/>
+      <c r="AO32" s="124"/>
+      <c r="AP32" s="124"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R33" s="86"/>
@@ -4411,12 +4882,12 @@
       <c r="AE33" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="AI33" s="116"/>
-      <c r="AJ33" s="116"/>
-      <c r="AL33" s="116"/>
-      <c r="AM33" s="116"/>
-      <c r="AO33" s="116"/>
-      <c r="AP33" s="116"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="124"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="124"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="124"/>
     </row>
     <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R34" s="86"/>
@@ -4450,12 +4921,12 @@
       <c r="AE35" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="AI35" s="116"/>
-      <c r="AJ35" s="116"/>
-      <c r="AL35" s="116"/>
-      <c r="AM35" s="116"/>
-      <c r="AO35" s="116"/>
-      <c r="AP35" s="116"/>
+      <c r="AI35" s="124"/>
+      <c r="AJ35" s="124"/>
+      <c r="AL35" s="124"/>
+      <c r="AM35" s="124"/>
+      <c r="AO35" s="124"/>
+      <c r="AP35" s="124"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R36" s="86"/>
@@ -4474,12 +4945,12 @@
       <c r="AE36" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="116"/>
-      <c r="AL36" s="116"/>
-      <c r="AM36" s="116"/>
-      <c r="AO36" s="116"/>
-      <c r="AP36" s="116"/>
+      <c r="AI36" s="124"/>
+      <c r="AJ36" s="124"/>
+      <c r="AL36" s="124"/>
+      <c r="AM36" s="124"/>
+      <c r="AO36" s="124"/>
+      <c r="AP36" s="124"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R37" s="86"/>
@@ -4498,12 +4969,12 @@
       <c r="AE37" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="AI37" s="116"/>
-      <c r="AJ37" s="116"/>
-      <c r="AL37" s="116"/>
-      <c r="AM37" s="116"/>
-      <c r="AO37" s="116"/>
-      <c r="AP37" s="116"/>
+      <c r="AI37" s="124"/>
+      <c r="AJ37" s="124"/>
+      <c r="AL37" s="124"/>
+      <c r="AM37" s="124"/>
+      <c r="AO37" s="124"/>
+      <c r="AP37" s="124"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R38" s="86"/>
@@ -4522,12 +4993,12 @@
       <c r="AE38" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="AI38" s="116"/>
-      <c r="AJ38" s="116"/>
-      <c r="AL38" s="116"/>
-      <c r="AM38" s="116"/>
-      <c r="AO38" s="116"/>
-      <c r="AP38" s="116"/>
+      <c r="AI38" s="124"/>
+      <c r="AJ38" s="124"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AO38" s="124"/>
+      <c r="AP38" s="124"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AC39" s="86"/>
@@ -4537,33 +5008,33 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R41" s="86"/>
-      <c r="S41" s="117" t="s">
+      <c r="S41" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
       <c r="AC41" s="86"/>
-      <c r="AD41" s="122" t="s">
+      <c r="AD41" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="122"/>
-      <c r="AG41" s="122"/>
-      <c r="AH41" s="122"/>
-      <c r="AI41" s="118" t="s">
+      <c r="AE41" s="130"/>
+      <c r="AF41" s="130"/>
+      <c r="AG41" s="130"/>
+      <c r="AH41" s="130"/>
+      <c r="AI41" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="AJ41" s="118"/>
-      <c r="AL41" s="118" t="s">
+      <c r="AJ41" s="126"/>
+      <c r="AL41" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="AM41" s="118"/>
-      <c r="AO41" s="118" t="s">
+      <c r="AM41" s="126"/>
+      <c r="AO41" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="AP41" s="118"/>
+      <c r="AP41" s="126"/>
     </row>
     <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="R42" s="86"/>
@@ -4599,22 +5070,22 @@
       <c r="AE43" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="AI43" s="116"/>
-      <c r="AJ43" s="116"/>
-      <c r="AL43" s="116"/>
-      <c r="AM43" s="116"/>
-      <c r="AO43" s="116"/>
-      <c r="AP43" s="116"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="124"/>
+      <c r="AL43" s="124"/>
+      <c r="AM43" s="124"/>
+      <c r="AO43" s="124"/>
+      <c r="AP43" s="124"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="86"/>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
       <c r="R44" s="86"/>
       <c r="S44" s="82"/>
       <c r="T44" s="82"/>
@@ -4632,12 +5103,12 @@
       <c r="AE44" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="AI44" s="116"/>
-      <c r="AJ44" s="116"/>
-      <c r="AL44" s="116"/>
-      <c r="AM44" s="116"/>
-      <c r="AO44" s="116"/>
-      <c r="AP44" s="116"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="86"/>
@@ -4663,12 +5134,12 @@
       <c r="AE45" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="AI45" s="116"/>
-      <c r="AJ45" s="116"/>
-      <c r="AL45" s="116"/>
-      <c r="AM45" s="116"/>
-      <c r="AO45" s="116"/>
-      <c r="AP45" s="116"/>
+      <c r="AI45" s="124"/>
+      <c r="AJ45" s="124"/>
+      <c r="AL45" s="124"/>
+      <c r="AM45" s="124"/>
+      <c r="AO45" s="124"/>
+      <c r="AP45" s="124"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
@@ -4694,12 +5165,12 @@
       <c r="AE46" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AO46" s="116"/>
-      <c r="AP46" s="116"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="124"/>
+      <c r="AL46" s="124"/>
+      <c r="AM46" s="124"/>
+      <c r="AO46" s="124"/>
+      <c r="AP46" s="124"/>
     </row>
     <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
@@ -4748,12 +5219,12 @@
       <c r="AE48" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="AI48" s="116"/>
-      <c r="AJ48" s="116"/>
-      <c r="AL48" s="116"/>
-      <c r="AM48" s="116"/>
-      <c r="AO48" s="116"/>
-      <c r="AP48" s="116"/>
+      <c r="AI48" s="124"/>
+      <c r="AJ48" s="124"/>
+      <c r="AL48" s="124"/>
+      <c r="AM48" s="124"/>
+      <c r="AO48" s="124"/>
+      <c r="AP48" s="124"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
@@ -4779,12 +5250,12 @@
       <c r="AE49" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="AI49" s="116"/>
-      <c r="AJ49" s="116"/>
-      <c r="AL49" s="116"/>
-      <c r="AM49" s="116"/>
-      <c r="AO49" s="116"/>
-      <c r="AP49" s="116"/>
+      <c r="AI49" s="124"/>
+      <c r="AJ49" s="124"/>
+      <c r="AL49" s="124"/>
+      <c r="AM49" s="124"/>
+      <c r="AO49" s="124"/>
+      <c r="AP49" s="124"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B50" s="84"/>
@@ -4809,22 +5280,22 @@
       <c r="AE50" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="AI50" s="116"/>
-      <c r="AJ50" s="116"/>
-      <c r="AL50" s="116"/>
-      <c r="AM50" s="116"/>
-      <c r="AO50" s="116"/>
-      <c r="AP50" s="116"/>
+      <c r="AI50" s="124"/>
+      <c r="AJ50" s="124"/>
+      <c r="AL50" s="124"/>
+      <c r="AM50" s="124"/>
+      <c r="AO50" s="124"/>
+      <c r="AP50" s="124"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="86"/>
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
       <c r="H51" s="78" t="s">
         <v>270</v>
       </c>
@@ -4848,12 +5319,12 @@
       <c r="AE51" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="AI51" s="116"/>
-      <c r="AJ51" s="116"/>
-      <c r="AL51" s="116"/>
-      <c r="AM51" s="116"/>
-      <c r="AO51" s="116"/>
-      <c r="AP51" s="116"/>
+      <c r="AI51" s="124"/>
+      <c r="AJ51" s="124"/>
+      <c r="AL51" s="124"/>
+      <c r="AM51" s="124"/>
+      <c r="AO51" s="124"/>
+      <c r="AP51" s="124"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
@@ -4887,12 +5358,12 @@
       <c r="AE52" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="AI52" s="116"/>
-      <c r="AJ52" s="116"/>
-      <c r="AL52" s="116"/>
-      <c r="AM52" s="116"/>
-      <c r="AO52" s="116"/>
-      <c r="AP52" s="116"/>
+      <c r="AI52" s="124"/>
+      <c r="AJ52" s="124"/>
+      <c r="AL52" s="124"/>
+      <c r="AM52" s="124"/>
+      <c r="AO52" s="124"/>
+      <c r="AP52" s="124"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="86"/>
@@ -4926,12 +5397,12 @@
       <c r="AE53" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="AI53" s="116"/>
-      <c r="AJ53" s="116"/>
-      <c r="AL53" s="116"/>
-      <c r="AM53" s="116"/>
-      <c r="AO53" s="116"/>
-      <c r="AP53" s="116"/>
+      <c r="AI53" s="124"/>
+      <c r="AJ53" s="124"/>
+      <c r="AL53" s="124"/>
+      <c r="AM53" s="124"/>
+      <c r="AO53" s="124"/>
+      <c r="AP53" s="124"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="86"/>
@@ -4965,12 +5436,12 @@
       <c r="AE54" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="AI54" s="116"/>
-      <c r="AJ54" s="116"/>
-      <c r="AL54" s="116"/>
-      <c r="AM54" s="116"/>
-      <c r="AO54" s="116"/>
-      <c r="AP54" s="116"/>
+      <c r="AI54" s="124"/>
+      <c r="AJ54" s="124"/>
+      <c r="AL54" s="124"/>
+      <c r="AM54" s="124"/>
+      <c r="AO54" s="124"/>
+      <c r="AP54" s="124"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="86"/>
@@ -5004,12 +5475,12 @@
       <c r="AE55" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="AI55" s="116"/>
-      <c r="AJ55" s="116"/>
-      <c r="AL55" s="116"/>
-      <c r="AM55" s="116"/>
-      <c r="AO55" s="116"/>
-      <c r="AP55" s="116"/>
+      <c r="AI55" s="124"/>
+      <c r="AJ55" s="124"/>
+      <c r="AL55" s="124"/>
+      <c r="AM55" s="124"/>
+      <c r="AO55" s="124"/>
+      <c r="AP55" s="124"/>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="86"/>
@@ -5043,12 +5514,12 @@
       <c r="AE56" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="AI56" s="116"/>
-      <c r="AJ56" s="116"/>
-      <c r="AL56" s="116"/>
-      <c r="AM56" s="116"/>
-      <c r="AO56" s="116"/>
-      <c r="AP56" s="116"/>
+      <c r="AI56" s="124"/>
+      <c r="AJ56" s="124"/>
+      <c r="AL56" s="124"/>
+      <c r="AM56" s="124"/>
+      <c r="AO56" s="124"/>
+      <c r="AP56" s="124"/>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="86"/>
@@ -5082,12 +5553,12 @@
       <c r="AE57" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="AI57" s="116"/>
-      <c r="AJ57" s="116"/>
-      <c r="AL57" s="116"/>
-      <c r="AM57" s="116"/>
-      <c r="AO57" s="116"/>
-      <c r="AP57" s="116"/>
+      <c r="AI57" s="124"/>
+      <c r="AJ57" s="124"/>
+      <c r="AL57" s="124"/>
+      <c r="AM57" s="124"/>
+      <c r="AO57" s="124"/>
+      <c r="AP57" s="124"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="R58" s="86"/>
@@ -5107,22 +5578,22 @@
       <c r="AE58" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="AI58" s="116"/>
-      <c r="AJ58" s="116"/>
-      <c r="AL58" s="116"/>
-      <c r="AM58" s="116"/>
-      <c r="AO58" s="116"/>
-      <c r="AP58" s="116"/>
+      <c r="AI58" s="124"/>
+      <c r="AJ58" s="124"/>
+      <c r="AL58" s="124"/>
+      <c r="AM58" s="124"/>
+      <c r="AO58" s="124"/>
+      <c r="AP58" s="124"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="86"/>
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
       <c r="J59" s="78" t="s">
         <v>264</v>
       </c>
@@ -5145,12 +5616,12 @@
       <c r="AE59" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="AI59" s="116"/>
-      <c r="AJ59" s="116"/>
-      <c r="AL59" s="116"/>
-      <c r="AM59" s="116"/>
-      <c r="AO59" s="116"/>
-      <c r="AP59" s="116"/>
+      <c r="AI59" s="124"/>
+      <c r="AJ59" s="124"/>
+      <c r="AL59" s="124"/>
+      <c r="AM59" s="124"/>
+      <c r="AO59" s="124"/>
+      <c r="AP59" s="124"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="86"/>
@@ -5180,33 +5651,33 @@
       <c r="L61" s="82"/>
       <c r="M61" s="82"/>
       <c r="P61" s="86"/>
-      <c r="Q61" s="117" t="s">
+      <c r="Q61" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="117"/>
-      <c r="U61" s="117"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
+      <c r="U61" s="125"/>
       <c r="V61" s="86"/>
       <c r="W61" s="86"/>
       <c r="X61" s="86"/>
-      <c r="Y61" s="117" t="s">
+      <c r="Y61" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="117"/>
-      <c r="AB61" s="117"/>
-      <c r="AC61" s="117"/>
+      <c r="Z61" s="125"/>
+      <c r="AA61" s="125"/>
+      <c r="AB61" s="125"/>
+      <c r="AC61" s="125"/>
       <c r="AD61" s="86"/>
       <c r="AE61" s="86"/>
       <c r="AF61" s="86"/>
-      <c r="AG61" s="117" t="s">
+      <c r="AG61" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="AH61" s="117"/>
-      <c r="AI61" s="117"/>
-      <c r="AJ61" s="117"/>
-      <c r="AK61" s="117"/>
+      <c r="AH61" s="125"/>
+      <c r="AI61" s="125"/>
+      <c r="AJ61" s="125"/>
+      <c r="AK61" s="125"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="86"/>
@@ -5714,39 +6185,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="F5" s="127" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="F5" s="135" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
@@ -5791,10 +6262,10 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
-      <c r="K9" s="126" t="s">
+      <c r="K9" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="126"/>
+      <c r="L9" s="134"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
@@ -5829,10 +6300,10 @@
       <c r="L11" s="40">
         <v>10</v>
       </c>
-      <c r="N11" s="126" t="s">
+      <c r="N11" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="126"/>
+      <c r="O11" s="134"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
@@ -5931,10 +6402,10 @@
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="131"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="103" t="s">
         <v>35</v>
       </c>
@@ -5957,10 +6428,10 @@
       <c r="M19" s="100"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="105" t="s">
         <v>198</v>
       </c>
@@ -5978,10 +6449,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="129"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="105">
         <v>0.01</v>
       </c>
@@ -5999,10 +6470,10 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="105">
         <v>0.52</v>
       </c>
@@ -6020,10 +6491,10 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="129"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="105">
         <v>4.2</v>
       </c>
@@ -6041,10 +6512,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="140" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="133"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="107">
         <v>32</v>
       </c>
@@ -6062,14 +6533,14 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="131"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="103" t="s">
         <v>293</v>
       </c>
@@ -6085,10 +6556,10 @@
       <c r="H26" s="101"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="136" t="s">
         <v>293</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="105" t="s">
         <v>198</v>
       </c>
@@ -6103,10 +6574,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="105">
         <v>520</v>
       </c>
@@ -6121,10 +6592,10 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="105">
         <v>1822</v>
       </c>
@@ -6139,10 +6610,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="140" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="141"/>
       <c r="D30" s="107">
         <v>4208</v>
       </c>
@@ -6157,20 +6628,20 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="100"/>
@@ -6208,7 +6679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M96"/>
   <sheetViews>
@@ -6231,11 +6702,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
@@ -9361,7 +9832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M47"/>
   <sheetViews>
@@ -9376,42 +9847,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="154" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
@@ -9426,49 +9897,49 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="69"/>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="69"/>
       <c r="E8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="149" t="s">
+      <c r="F8" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="G8" s="149"/>
+      <c r="G8" s="157"/>
       <c r="H8" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="149"/>
+      <c r="J8" s="157"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="74">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="155">
         <f>E9*TotRev</f>
         <v>24353.458643765774</v>
       </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="156"/>
       <c r="H9" s="74">
         <v>0.21</v>
       </c>
-      <c r="I9" s="147">
+      <c r="I9" s="155">
         <f>H9*TotRev</f>
         <v>21762.665171024735</v>
       </c>
-      <c r="J9" s="148"/>
+      <c r="J9" s="156"/>
       <c r="K9" s="10">
         <f>H9-E9</f>
         <v>-2.4999999999999994E-2</v>
@@ -9476,27 +9947,27 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="64">
         <v>0.155</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="145">
         <f t="shared" ref="F10:F30" si="0">E10*TotRev</f>
         <v>16062.919530994448</v>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="146"/>
       <c r="H10" s="64">
         <v>0.15</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="145">
         <f t="shared" ref="I10:I31" si="1">H10*TotRev</f>
         <v>15544.760836446239</v>
       </c>
-      <c r="J10" s="138"/>
+      <c r="J10" s="146"/>
       <c r="K10" s="10">
         <f t="shared" ref="K10:K31" si="2">H10-E10</f>
         <v>-5.0000000000000044E-3</v>
@@ -9504,27 +9975,27 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="64">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F11" s="137">
+      <c r="F11" s="145">
         <f t="shared" si="0"/>
         <v>14922.970402988389</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="64">
         <v>0.14399999999999999</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="145">
         <f t="shared" si="1"/>
         <v>14922.970402988389</v>
       </c>
-      <c r="J11" s="138"/>
+      <c r="J11" s="146"/>
       <c r="K11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9532,27 +10003,27 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="69"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="145"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="64">
         <v>0.127</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F12" s="145">
         <f t="shared" si="0"/>
         <v>13161.230841524484</v>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="64">
         <v>0.1</v>
       </c>
-      <c r="I12" s="137">
+      <c r="I12" s="145">
         <f t="shared" si="1"/>
         <v>10363.173890964161</v>
       </c>
-      <c r="J12" s="138"/>
+      <c r="J12" s="146"/>
       <c r="K12" s="10">
         <f t="shared" si="2"/>
         <v>-2.6999999999999996E-2</v>
@@ -9560,27 +10031,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="64">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F13" s="137">
+      <c r="F13" s="145">
         <f t="shared" si="0"/>
         <v>10674.069107693083</v>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="64">
         <v>0.113</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="145">
         <f t="shared" si="1"/>
         <v>11710.386496789501</v>
       </c>
-      <c r="J13" s="138"/>
+      <c r="J13" s="146"/>
       <c r="K13" s="10">
         <f t="shared" si="2"/>
         <v>1.0000000000000009E-2</v>
@@ -9591,27 +10062,27 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="145"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="64">
         <v>6.3E-2</v>
       </c>
-      <c r="F14" s="137">
+      <c r="F14" s="145">
         <f t="shared" si="0"/>
         <v>6528.7995513074211</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="64">
         <v>6.3E-2</v>
       </c>
-      <c r="I14" s="137">
+      <c r="I14" s="145">
         <f t="shared" si="1"/>
         <v>6528.7995513074211</v>
       </c>
-      <c r="J14" s="138"/>
+      <c r="J14" s="146"/>
       <c r="K14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9619,27 +10090,27 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="69"/>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="64">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="145">
         <f t="shared" si="0"/>
         <v>4974.3234676627972</v>
       </c>
-      <c r="G15" s="138"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="64">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I15" s="137">
+      <c r="I15" s="145">
         <f t="shared" si="1"/>
         <v>5492.4821622110048</v>
       </c>
-      <c r="J15" s="138"/>
+      <c r="J15" s="146"/>
       <c r="K15" s="10">
         <f t="shared" si="2"/>
         <v>4.9999999999999975E-3</v>
@@ -9650,27 +10121,27 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="64">
         <v>0.04</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="145">
         <f t="shared" si="0"/>
         <v>4145.2695563856641</v>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="146"/>
       <c r="H16" s="64">
         <v>0.04</v>
       </c>
-      <c r="I16" s="137">
+      <c r="I16" s="145">
         <f t="shared" si="1"/>
         <v>4145.2695563856641</v>
       </c>
-      <c r="J16" s="138"/>
+      <c r="J16" s="146"/>
       <c r="K16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9678,27 +10149,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="152" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="64">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F17" s="137">
+      <c r="F17" s="145">
         <f t="shared" si="0"/>
         <v>2694.4252116506814</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="64">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I17" s="137">
+      <c r="I17" s="145">
         <f t="shared" si="1"/>
         <v>3730.7426007470972</v>
       </c>
-      <c r="J17" s="138"/>
+      <c r="J17" s="146"/>
       <c r="K17" s="10">
         <f t="shared" si="2"/>
         <v>9.9999999999999985E-3</v>
@@ -9709,27 +10180,27 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="64">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F18" s="137">
+      <c r="F18" s="145">
         <f t="shared" si="0"/>
         <v>2176.2665171024737</v>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="146"/>
       <c r="H18" s="64">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I18" s="137">
+      <c r="I18" s="145">
         <f t="shared" si="1"/>
         <v>3627.1108618374565</v>
       </c>
-      <c r="J18" s="138"/>
+      <c r="J18" s="146"/>
       <c r="K18" s="10">
         <f t="shared" si="2"/>
         <v>1.4000000000000002E-2</v>
@@ -9740,27 +10211,27 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="64">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F19" s="137">
+      <c r="F19" s="145">
         <f t="shared" si="0"/>
         <v>1761.7395614639074</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="146"/>
       <c r="H19" s="64">
         <v>0.03</v>
       </c>
-      <c r="I19" s="137">
+      <c r="I19" s="145">
         <f t="shared" si="1"/>
         <v>3108.9521672892479</v>
       </c>
-      <c r="J19" s="138"/>
+      <c r="J19" s="146"/>
       <c r="K19" s="10">
         <f t="shared" si="2"/>
         <v>1.2999999999999998E-2</v>
@@ -9771,27 +10242,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="64">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F20" s="137">
+      <c r="F20" s="145">
         <f t="shared" si="0"/>
         <v>1554.4760836446239</v>
       </c>
-      <c r="G20" s="138"/>
+      <c r="G20" s="146"/>
       <c r="H20" s="64">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I20" s="137">
+      <c r="I20" s="145">
         <f t="shared" si="1"/>
         <v>1554.4760836446239</v>
       </c>
-      <c r="J20" s="138"/>
+      <c r="J20" s="146"/>
       <c r="K20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9799,27 +10270,27 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="64">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F21" s="137">
+      <c r="F21" s="145">
         <f t="shared" si="0"/>
         <v>1347.2126058253407</v>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="146"/>
       <c r="H21" s="64">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I21" s="137">
+      <c r="I21" s="145">
         <f t="shared" si="1"/>
         <v>1865.3713003735486</v>
       </c>
-      <c r="J21" s="138"/>
+      <c r="J21" s="146"/>
       <c r="K21" s="10">
         <f t="shared" si="2"/>
         <v>4.9999999999999992E-3</v>
@@ -9830,27 +10301,27 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="64">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F22" s="137">
+      <c r="F22" s="145">
         <f t="shared" si="0"/>
         <v>1139.9491280060574</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="146"/>
       <c r="H22" s="64">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="145">
         <f t="shared" si="1"/>
         <v>1139.9491280060574</v>
       </c>
-      <c r="J22" s="138"/>
+      <c r="J22" s="146"/>
       <c r="K22" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9858,27 +10329,27 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="64">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F23" s="137">
+      <c r="F23" s="145">
         <f t="shared" si="0"/>
         <v>932.6856501867743</v>
       </c>
-      <c r="G23" s="138"/>
+      <c r="G23" s="146"/>
       <c r="H23" s="64">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I23" s="137">
+      <c r="I23" s="145">
         <f t="shared" si="1"/>
         <v>932.6856501867743</v>
       </c>
-      <c r="J23" s="138"/>
+      <c r="J23" s="146"/>
       <c r="K23" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9886,27 +10357,27 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F24" s="137">
+      <c r="F24" s="145">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I24" s="137">
+      <c r="I24" s="145">
         <f t="shared" si="1"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="J24" s="138"/>
+      <c r="J24" s="146"/>
       <c r="K24" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9914,27 +10385,27 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="69"/>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F25" s="137">
+      <c r="F25" s="145">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="146"/>
       <c r="H25" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I25" s="137">
+      <c r="I25" s="145">
         <f t="shared" si="1"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="J25" s="138"/>
+      <c r="J25" s="146"/>
       <c r="K25" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9942,27 +10413,27 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F26" s="137">
+      <c r="F26" s="145">
         <f t="shared" si="0"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="64">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I26" s="137">
+      <c r="I26" s="145">
         <f t="shared" si="1"/>
         <v>829.05391127713278</v>
       </c>
-      <c r="J26" s="138"/>
+      <c r="J26" s="146"/>
       <c r="K26" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9970,27 +10441,27 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="152" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="64">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="137">
+      <c r="F27" s="145">
         <f t="shared" si="0"/>
         <v>310.89521672892482</v>
       </c>
-      <c r="G27" s="138"/>
+      <c r="G27" s="146"/>
       <c r="H27" s="64">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I27" s="137">
+      <c r="I27" s="145">
         <f t="shared" si="1"/>
         <v>310.89521672892482</v>
       </c>
-      <c r="J27" s="138"/>
+      <c r="J27" s="146"/>
       <c r="K27" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9998,27 +10469,27 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="64">
         <v>2E-3</v>
       </c>
-      <c r="F28" s="137">
+      <c r="F28" s="145">
         <f t="shared" si="0"/>
         <v>207.2634778192832</v>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="64">
         <v>2E-3</v>
       </c>
-      <c r="I28" s="137">
+      <c r="I28" s="145">
         <f t="shared" si="1"/>
         <v>207.2634778192832</v>
       </c>
-      <c r="J28" s="138"/>
+      <c r="J28" s="146"/>
       <c r="K28" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10026,25 +10497,25 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="64">
         <v>0</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="64">
         <v>0</v>
       </c>
-      <c r="I29" s="137">
+      <c r="I29" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="138"/>
+      <c r="J29" s="146"/>
       <c r="K29" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10055,25 +10526,25 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="64">
         <v>0</v>
       </c>
-      <c r="F30" s="137">
+      <c r="F30" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="146"/>
       <c r="H30" s="64">
         <v>0</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="138"/>
+      <c r="J30" s="146"/>
       <c r="K30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10081,27 +10552,27 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="158" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
       <c r="E31" s="64">
         <v>-0.02</v>
       </c>
-      <c r="F31" s="137">
+      <c r="F31" s="145">
         <f>E31*TotRev</f>
         <v>-2072.6347781928321</v>
       </c>
-      <c r="G31" s="138"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="64">
         <v>-0.02</v>
       </c>
-      <c r="I31" s="137">
+      <c r="I31" s="145">
         <f t="shared" si="1"/>
         <v>-2072.6347781928321</v>
       </c>
-      <c r="J31" s="138"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10121,19 +10592,19 @@
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="69"/>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="65">
         <f>SUM(E9:E23)</f>
         <v>1.0269999999999999</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="147">
         <f>SUM(F9:F30)</f>
         <v>109435.11628858154</v>
       </c>
-      <c r="G33" s="139"/>
+      <c r="G33" s="147"/>
       <c r="H33" t="s">
         <v>196</v>
       </c>
@@ -10174,10 +10645,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="140"/>
+      <c r="C36" s="148"/>
       <c r="D36" s="73"/>
       <c r="E36" s="72"/>
       <c r="F36" s="69"/>
@@ -10187,10 +10658,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="144"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="64">
         <v>0.05</v>
       </c>
@@ -10205,10 +10676,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="69"/>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="144"/>
+      <c r="C38" s="152"/>
       <c r="D38" s="64">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -10226,10 +10697,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="152" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="144"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="64">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -10244,10 +10715,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="69"/>
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="144"/>
+      <c r="C40" s="152"/>
       <c r="D40" s="66">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -10273,15 +10744,15 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="69"/>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="143">
+      <c r="C42" s="148"/>
+      <c r="D42" s="151">
         <f>SUM(E37:E40)</f>
         <v>103631.7389096416</v>
       </c>
-      <c r="E42" s="143"/>
+      <c r="E42" s="151"/>
       <c r="F42" t="s">
         <v>196</v>
       </c>
@@ -10313,15 +10784,15 @@
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="69"/>
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141">
+      <c r="C45" s="148"/>
+      <c r="D45" s="149">
         <f>TotRev-F33</f>
         <v>-5803.377378939942</v>
       </c>
-      <c r="E45" s="141"/>
+      <c r="E45" s="149"/>
       <c r="F45" t="s">
         <v>196</v>
       </c>
@@ -10331,14 +10802,14 @@
     </row>
     <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="69"/>
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="142">
+      <c r="C46" s="142"/>
+      <c r="D46" s="150">
         <v>16304</v>
       </c>
-      <c r="E46" s="142"/>
+      <c r="E46" s="150"/>
       <c r="F46" t="s">
         <v>196</v>
       </c>
@@ -10683,7 +11154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D24"/>
   <sheetViews>
@@ -10694,87 +11165,87 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="148"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="134" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="134"/>
       <c r="D7">
         <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -10802,7 +11273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L28"/>
   <sheetViews>
@@ -10813,54 +11284,54 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -10876,12 +11347,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
@@ -10939,7 +11410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA135"/>
   <sheetViews>
@@ -11544,10 +12015,10 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
-      <c r="W31" s="155" t="s">
+      <c r="W31" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="X31" s="155"/>
+      <c r="X31" s="163"/>
       <c r="Y31">
         <v>0.58750000000000002</v>
       </c>
@@ -11564,10 +12035,10 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="W32" s="154" t="s">
+      <c r="W32" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="154"/>
+      <c r="X32" s="162"/>
       <c r="Y32">
         <v>0.86159535129424203</v>
       </c>
@@ -11584,10 +12055,10 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="W33" s="159" t="s">
+      <c r="W33" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="X33" s="159"/>
+      <c r="X33" s="167"/>
       <c r="Y33">
         <v>0.93631931748933583</v>
       </c>
@@ -11604,10 +12075,10 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
       <c r="S34" s="1"/>
-      <c r="W34" s="158" t="s">
+      <c r="W34" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="X34" s="158"/>
+      <c r="X34" s="166"/>
       <c r="Y34">
         <v>0.68110236220472442</v>
       </c>
@@ -11625,10 +12096,10 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="W35" s="157" t="s">
+      <c r="W35" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="X35" s="157"/>
+      <c r="X35" s="165"/>
       <c r="Y35">
         <v>0.89855942376950781</v>
       </c>
@@ -11645,10 +12116,10 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="1"/>
       <c r="S36" s="20"/>
-      <c r="W36" s="156" t="s">
+      <c r="W36" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="X36" s="156"/>
+      <c r="X36" s="164"/>
       <c r="Y36">
         <v>0.7371007371007372</v>
       </c>
